--- a/me/6.Task-dependencies.xlsx
+++ b/me/6.Task-dependencies.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE3F59-8228-49EC-A310-6F2656D292B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF1119-A4F2-469F-A9BF-17C2A32C25DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depends On" sheetId="1" r:id="rId1"/>
     <sheet name="Filtering Tasks with dependsOn" sheetId="3" r:id="rId2"/>
+    <sheet name="dependsOn in conditional logic" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="75">
   <si>
     <t>構成</t>
   </si>
@@ -280,6 +281,42 @@
   </si>
   <si>
     <t xml:space="preserve">We do not actually have to use just the hard code name of the task. We can also use a Closure  </t>
+  </si>
+  <si>
+    <t>task doSomethingInTheMiddle (dependsOn: ['doStartProcess',  tasks.findAll { task -&gt; task.name.startsWith('doStep2')  }  ]) {</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; ${ project.tasks.findAll { task -&gt; task.name.startsWith('doStep2')  }  }"</t>
+  </si>
+  <si>
+    <t>//Conditional logic</t>
+  </si>
+  <si>
+    <t>if ( Math.random() &lt; 0.5){</t>
+  </si>
+  <si>
+    <t>    doSomethingInTheMiddle.dependsOn doStartProcess, tasks.findAll { task -&gt; task.name.startsWith('doStep2') }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Another way to add dependencies onto our Task that is used dependsOn method</t>
+  </si>
+  <si>
+    <t>https://docs.gradle.org/current/dsl/org.gradle.api.Task.html#org.gradle.api.Task:dependsOn(java.lang.Object[])</t>
+  </si>
+  <si>
+    <t>For example depending on that build environment we have different</t>
+  </si>
+  <si>
+    <t>set of dependencies and we want to run</t>
+  </si>
+  <si>
+    <t>First run doStartProcess và doStep2 cũng được chạy do thỏa mãn điều kiện Math.random() &lt; 0.5</t>
+  </si>
+  <si>
+    <t>Second run doStartProcess và doStep2 không được chạy do không thỏa mãn điều kiện Math.random() &lt; 0.5</t>
   </si>
 </sst>
 </file>
@@ -496,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -516,11 +553,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1444,6 +1482,187 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64FEA54-484C-23F6-8408-CE68D20C7A03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="685801"/>
+          <a:ext cx="10106025" cy="3743520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>387965</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6E5F42-06CD-ADFB-3B57-8D54CBF62B74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="17183100"/>
+          <a:ext cx="11246465" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>303480</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>142581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2153D4BE-65A3-F1C8-F232-61B0E9C7D5E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="21412200"/>
+          <a:ext cx="10561905" cy="2352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>284428</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>180743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65F6B33-49F8-AD51-1695-DD7817C22D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="24231600"/>
+          <a:ext cx="10571428" cy="1857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3233,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B87D40-1361-4E07-8BF4-790DBF080BA8}">
   <dimension ref="A2:T197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P178" sqref="P178"/>
+    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,7 +3464,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="3"/>
@@ -3268,2382 +3487,461 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
       <c r="T8" s="6"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
       <c r="T11" s="6"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
       <c r="T14" s="6"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
       <c r="T15" s="6"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
       <c r="T16" s="6"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
       <c r="T17" s="6"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
       <c r="T19" s="6"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
       <c r="T20" s="6"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
       <c r="T21" s="6"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
       <c r="T22" s="6"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
       <c r="T23" s="6"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
       <c r="T24" s="6"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
       <c r="T25" s="6"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
       <c r="T26" s="6"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
       <c r="T27" s="6"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
       <c r="T28" s="6"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
       <c r="T29" s="6"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
       <c r="T30" s="6"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
       <c r="T31" s="6"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
       <c r="T32" s="6"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
       <c r="T33" s="6"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
       <c r="T34" s="6"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
       <c r="T35" s="6"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
       <c r="T36" s="6"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
       <c r="T38" s="6"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
       <c r="T39" s="6"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
       <c r="T40" s="6"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
       <c r="T41" s="6"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
       <c r="T42" s="6"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
       <c r="T43" s="6"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
       <c r="T44" s="6"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
       <c r="T45" s="6"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
       <c r="T46" s="6"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
       <c r="T47" s="6"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
       <c r="T48" s="6"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
       <c r="T49" s="6"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
       <c r="T50" s="6"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
       <c r="T51" s="6"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
       <c r="T52" s="6"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
       <c r="T53" s="6"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
       <c r="T54" s="6"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
       <c r="T55" s="6"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
       <c r="T56" s="6"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
       <c r="T57" s="6"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
       <c r="T58" s="6"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
       <c r="T59" s="6"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
       <c r="T60" s="6"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
       <c r="T61" s="6"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
       <c r="T62" s="6"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
       <c r="T63" s="6"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
       <c r="T64" s="6"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
       <c r="T65" s="6"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
       <c r="T66" s="6"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
       <c r="T67" s="6"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
       <c r="T68" s="6"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
       <c r="T69" s="6"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="20"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
       <c r="T70" s="6"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
       <c r="T71" s="6"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
       <c r="T72" s="6"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
       <c r="T73" s="6"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
       <c r="T74" s="6"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
       <c r="T75" s="6"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
       <c r="T76" s="6"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="20"/>
       <c r="T77" s="6"/>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
       <c r="T78" s="6"/>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
       <c r="T79" s="6"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="20"/>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="20"/>
-      <c r="S80" s="20"/>
       <c r="T80" s="6"/>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
-      <c r="S81" s="20"/>
       <c r="T81" s="6"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
       <c r="T82" s="6"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
-      <c r="S83" s="20"/>
       <c r="T83" s="6"/>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
       <c r="T84" s="6"/>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="20"/>
       <c r="T85" s="6"/>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="20"/>
       <c r="T86" s="6"/>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="20"/>
       <c r="T87" s="6"/>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="20"/>
       <c r="T88" s="6"/>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="20"/>
       <c r="T89" s="6"/>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="20"/>
-      <c r="P90" s="20"/>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="20"/>
       <c r="T90" s="6"/>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="20"/>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="20"/>
-      <c r="S91" s="20"/>
       <c r="T91" s="6"/>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="20"/>
-      <c r="O92" s="20"/>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="20"/>
-      <c r="S92" s="20"/>
       <c r="T92" s="6"/>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="20"/>
-      <c r="S93" s="20"/>
       <c r="T93" s="6"/>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="20"/>
-      <c r="S94" s="20"/>
       <c r="T94" s="6"/>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="20"/>
-      <c r="O95" s="20"/>
-      <c r="P95" s="20"/>
-      <c r="Q95" s="20"/>
-      <c r="R95" s="20"/>
-      <c r="S95" s="20"/>
       <c r="T95" s="6"/>
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="20"/>
-      <c r="Q96" s="20"/>
-      <c r="R96" s="20"/>
-      <c r="S96" s="20"/>
       <c r="T96" s="6"/>
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="20"/>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="20"/>
-      <c r="S97" s="20"/>
       <c r="T97" s="6"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="20"/>
-      <c r="R98" s="20"/>
-      <c r="S98" s="20"/>
       <c r="T98" s="6"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="20"/>
-      <c r="S99" s="20"/>
       <c r="T99" s="6"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="20"/>
-      <c r="O100" s="20"/>
-      <c r="P100" s="20"/>
-      <c r="Q100" s="20"/>
-      <c r="R100" s="20"/>
-      <c r="S100" s="20"/>
       <c r="T100" s="6"/>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="20"/>
-      <c r="N101" s="20"/>
-      <c r="O101" s="20"/>
-      <c r="P101" s="20"/>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="20"/>
-      <c r="S101" s="20"/>
       <c r="T101" s="6"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="20"/>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="20"/>
-      <c r="S102" s="20"/>
       <c r="T102" s="6"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="20"/>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="20"/>
-      <c r="S103" s="20"/>
       <c r="T103" s="6"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="20"/>
-      <c r="M104" s="20"/>
-      <c r="N104" s="20"/>
-      <c r="O104" s="20"/>
-      <c r="P104" s="20"/>
-      <c r="Q104" s="20"/>
-      <c r="R104" s="20"/>
-      <c r="S104" s="20"/>
       <c r="T104" s="6"/>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
-      <c r="L105" s="20"/>
-      <c r="M105" s="20"/>
-      <c r="N105" s="20"/>
-      <c r="O105" s="20"/>
-      <c r="P105" s="20"/>
-      <c r="Q105" s="20"/>
-      <c r="R105" s="20"/>
-      <c r="S105" s="20"/>
       <c r="T105" s="6"/>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
-      <c r="M106" s="20"/>
-      <c r="N106" s="20"/>
-      <c r="O106" s="20"/>
-      <c r="P106" s="20"/>
-      <c r="Q106" s="20"/>
-      <c r="R106" s="20"/>
-      <c r="S106" s="20"/>
       <c r="T106" s="6"/>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="20"/>
-      <c r="K107" s="20"/>
-      <c r="L107" s="20"/>
-      <c r="M107" s="20"/>
-      <c r="N107" s="20"/>
-      <c r="O107" s="20"/>
-      <c r="P107" s="20"/>
-      <c r="Q107" s="20"/>
-      <c r="R107" s="20"/>
-      <c r="S107" s="20"/>
       <c r="T107" s="6"/>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="20"/>
-      <c r="N108" s="20"/>
-      <c r="O108" s="20"/>
-      <c r="P108" s="20"/>
-      <c r="Q108" s="20"/>
-      <c r="R108" s="20"/>
-      <c r="S108" s="20"/>
       <c r="T108" s="6"/>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="20"/>
-      <c r="M109" s="20"/>
-      <c r="N109" s="20"/>
-      <c r="O109" s="20"/>
-      <c r="P109" s="20"/>
-      <c r="Q109" s="20"/>
-      <c r="R109" s="20"/>
-      <c r="S109" s="20"/>
       <c r="T109" s="6"/>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="20"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
-      <c r="M110" s="20"/>
-      <c r="N110" s="20"/>
-      <c r="O110" s="20"/>
-      <c r="P110" s="20"/>
-      <c r="Q110" s="20"/>
-      <c r="R110" s="20"/>
-      <c r="S110" s="20"/>
       <c r="T110" s="6"/>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="20"/>
-      <c r="M111" s="20"/>
-      <c r="N111" s="20"/>
-      <c r="O111" s="20"/>
-      <c r="P111" s="20"/>
-      <c r="Q111" s="20"/>
-      <c r="R111" s="20"/>
-      <c r="S111" s="20"/>
       <c r="T111" s="6"/>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20"/>
-      <c r="M112" s="20"/>
-      <c r="N112" s="20"/>
-      <c r="O112" s="20"/>
-      <c r="P112" s="20"/>
-      <c r="Q112" s="20"/>
-      <c r="R112" s="20"/>
-      <c r="S112" s="20"/>
       <c r="T112" s="6"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="20"/>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="20"/>
-      <c r="S113" s="20"/>
       <c r="T113" s="6"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B114" s="5"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="20"/>
-      <c r="M114" s="20"/>
-      <c r="N114" s="20"/>
-      <c r="O114" s="20"/>
-      <c r="P114" s="20"/>
-      <c r="Q114" s="20"/>
-      <c r="R114" s="20"/>
-      <c r="S114" s="20"/>
       <c r="T114" s="6"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="20"/>
-      <c r="N115" s="20"/>
-      <c r="O115" s="20"/>
-      <c r="P115" s="20"/>
-      <c r="Q115" s="20"/>
-      <c r="R115" s="20"/>
-      <c r="S115" s="20"/>
       <c r="T115" s="6"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
-      <c r="L116" s="20"/>
-      <c r="M116" s="20"/>
-      <c r="N116" s="20"/>
-      <c r="O116" s="20"/>
-      <c r="P116" s="20"/>
-      <c r="Q116" s="20"/>
-      <c r="R116" s="20"/>
-      <c r="S116" s="20"/>
       <c r="T116" s="6"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="20"/>
-      <c r="K117" s="20"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="20"/>
-      <c r="N117" s="20"/>
-      <c r="O117" s="20"/>
-      <c r="P117" s="20"/>
-      <c r="Q117" s="20"/>
-      <c r="R117" s="20"/>
-      <c r="S117" s="20"/>
       <c r="T117" s="6"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="20"/>
-      <c r="O118" s="20"/>
-      <c r="P118" s="20"/>
-      <c r="Q118" s="20"/>
-      <c r="R118" s="20"/>
-      <c r="S118" s="20"/>
       <c r="T118" s="6"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -5791,14 +4089,14 @@
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" s="5"/>
-      <c r="C139" s="19" t="s">
+      <c r="C139" t="s">
         <v>19</v>
       </c>
       <c r="I139" s="6"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" s="5"/>
-      <c r="D140" s="19" t="s">
+      <c r="D140" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="7"/>
@@ -5884,250 +4182,96 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B152" s="5"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20"/>
-      <c r="L152" s="20"/>
       <c r="M152" s="6"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B153" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
       <c r="M153" s="6"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B154" s="5"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
       <c r="M154" s="6"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
-      <c r="J155" s="20"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
       <c r="M155" s="6"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
-      <c r="C156" s="20" t="s">
+      <c r="C156" t="s">
         <v>52</v>
       </c>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="20"/>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
       <c r="M156" s="6"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="20" t="s">
+      <c r="D157" t="s">
         <v>53</v>
       </c>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
       <c r="M157" s="6"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
-      <c r="C158" s="20" t="s">
+      <c r="C158" t="s">
         <v>30</v>
       </c>
-      <c r="D158" s="20"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
-      <c r="J158" s="20"/>
-      <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
       <c r="M158" s="6"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C159" s="20"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="20"/>
-      <c r="J159" s="20"/>
-      <c r="K159" s="20"/>
-      <c r="L159" s="20"/>
       <c r="M159" s="6"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B160" s="5"/>
-      <c r="C160" s="20"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="20"/>
-      <c r="J160" s="20"/>
-      <c r="K160" s="20"/>
-      <c r="L160" s="20"/>
       <c r="M160" s="6"/>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C161" s="20"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="20"/>
-      <c r="J161" s="20"/>
-      <c r="K161" s="20"/>
-      <c r="L161" s="20"/>
       <c r="M161" s="6"/>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
-      <c r="C162" s="20" t="s">
+      <c r="C162" t="s">
         <v>52</v>
       </c>
-      <c r="D162" s="20"/>
-      <c r="E162" s="20"/>
-      <c r="F162" s="20"/>
-      <c r="G162" s="20"/>
-      <c r="H162" s="20"/>
-      <c r="I162" s="20"/>
-      <c r="J162" s="20"/>
-      <c r="K162" s="20"/>
-      <c r="L162" s="20"/>
       <c r="M162" s="6"/>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20" t="s">
+      <c r="D163" t="s">
         <v>54</v>
       </c>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="20"/>
-      <c r="K163" s="20"/>
-      <c r="L163" s="20"/>
       <c r="M163" s="6"/>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
-      <c r="C164" s="20" t="s">
+      <c r="C164" t="s">
         <v>30</v>
       </c>
-      <c r="D164" s="20"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="20"/>
-      <c r="J164" s="20"/>
-      <c r="K164" s="20"/>
-      <c r="L164" s="20"/>
       <c r="M164" s="6"/>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B165" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C165" s="20"/>
-      <c r="D165" s="20"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="20"/>
-      <c r="J165" s="20"/>
-      <c r="K165" s="20"/>
-      <c r="L165" s="20"/>
       <c r="M165" s="6"/>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
-      <c r="C166" s="20"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="20"/>
-      <c r="J166" s="20"/>
-      <c r="K166" s="20"/>
-      <c r="L166" s="20"/>
       <c r="M166" s="6"/>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B167" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C167" s="20"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="20"/>
-      <c r="I167" s="20"/>
-      <c r="J167" s="20"/>
-      <c r="K167" s="20"/>
-      <c r="L167" s="20"/>
       <c r="M167" s="6"/>
       <c r="N167" t="s">
         <v>22</v>
@@ -6138,178 +4282,74 @@
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B168" s="5"/>
-      <c r="C168" s="20" t="s">
+      <c r="C168" t="s">
         <v>52</v>
       </c>
-      <c r="D168" s="20"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="20"/>
-      <c r="J168" s="20"/>
-      <c r="K168" s="20"/>
-      <c r="L168" s="20"/>
       <c r="M168" s="6"/>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
-      <c r="C169" s="20"/>
-      <c r="D169" s="20" t="s">
+      <c r="D169" t="s">
         <v>55</v>
       </c>
-      <c r="E169" s="20"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
-      <c r="J169" s="20"/>
-      <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
       <c r="M169" s="6"/>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
-      <c r="C170" s="20" t="s">
+      <c r="C170" t="s">
         <v>30</v>
       </c>
-      <c r="D170" s="20"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="20"/>
-      <c r="I170" s="20"/>
-      <c r="J170" s="20"/>
-      <c r="K170" s="20"/>
-      <c r="L170" s="20"/>
       <c r="M170" s="6"/>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B171" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="20"/>
-      <c r="J171" s="20"/>
-      <c r="K171" s="20"/>
-      <c r="L171" s="20"/>
       <c r="M171" s="6"/>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
-      <c r="C172" s="20"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="20"/>
-      <c r="I172" s="20"/>
-      <c r="J172" s="20"/>
-      <c r="K172" s="20"/>
-      <c r="L172" s="20"/>
       <c r="M172" s="6"/>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="20"/>
-      <c r="J173" s="20"/>
-      <c r="K173" s="20"/>
-      <c r="L173" s="20"/>
       <c r="M173" s="6"/>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
-      <c r="C174" s="20" t="s">
+      <c r="C174" t="s">
         <v>52</v>
       </c>
-      <c r="D174" s="20"/>
-      <c r="E174" s="20"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="20"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="20"/>
-      <c r="J174" s="20"/>
-      <c r="K174" s="20"/>
-      <c r="L174" s="20"/>
       <c r="M174" s="6"/>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="20" t="s">
+      <c r="D175" t="s">
         <v>57</v>
       </c>
-      <c r="E175" s="20"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="20"/>
-      <c r="H175" s="20"/>
-      <c r="I175" s="20"/>
-      <c r="J175" s="20"/>
-      <c r="K175" s="20"/>
-      <c r="L175" s="20"/>
       <c r="M175" s="6"/>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
-      <c r="C176" s="20" t="s">
+      <c r="C176" t="s">
         <v>30</v>
       </c>
-      <c r="D176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
-      <c r="J176" s="20"/>
-      <c r="K176" s="20"/>
-      <c r="L176" s="20"/>
       <c r="M176" s="6"/>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="20"/>
-      <c r="H177" s="20"/>
-      <c r="I177" s="20"/>
-      <c r="J177" s="20"/>
-      <c r="K177" s="20"/>
-      <c r="L177" s="20"/>
       <c r="M177" s="6"/>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
-      <c r="C178" s="20"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="20"/>
-      <c r="J178" s="20"/>
-      <c r="K178" s="20"/>
-      <c r="L178" s="20"/>
       <c r="M178" s="6"/>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B179" s="23" t="s">
+      <c r="B179" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C179" s="9"/>
@@ -6339,4 +4379,1798 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F558FB7-0978-4425-9CAA-1DF84A7F873F}">
+  <dimension ref="A2:S138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="E46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="6"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="6"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="6"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="6"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="6"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="6"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="6"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="6"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="6"/>
+      <c r="N87" t="s">
+        <v>22</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="6"/>
+      <c r="O88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="10"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="4"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="22"/>
+      <c r="Q112" s="22"/>
+      <c r="R112" s="22"/>
+      <c r="S112" s="6"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="22"/>
+      <c r="S113" s="6"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="22"/>
+      <c r="Q114" s="22"/>
+      <c r="R114" s="22"/>
+      <c r="S114" s="6"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="22"/>
+      <c r="S115" s="6"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="22"/>
+      <c r="S116" s="6"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="22"/>
+      <c r="P117" s="22"/>
+      <c r="Q117" s="22"/>
+      <c r="R117" s="22"/>
+      <c r="S117" s="6"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="22"/>
+      <c r="R118" s="22"/>
+      <c r="S118" s="6"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="22"/>
+      <c r="S119" s="6"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="22"/>
+      <c r="J120" s="22"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="22"/>
+      <c r="P120" s="22"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="22"/>
+      <c r="S120" s="6"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="22"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="22"/>
+      <c r="S121" s="6"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="22"/>
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="22"/>
+      <c r="S122" s="6"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="22"/>
+      <c r="N123" s="22"/>
+      <c r="O123" s="22"/>
+      <c r="P123" s="22"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="22"/>
+      <c r="S123" s="6"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="22"/>
+      <c r="Q124" s="22"/>
+      <c r="R124" s="22"/>
+      <c r="S124" s="6"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="22"/>
+      <c r="Q125" s="22"/>
+      <c r="R125" s="22"/>
+      <c r="S125" s="6"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="22"/>
+      <c r="N126" s="22"/>
+      <c r="O126" s="22"/>
+      <c r="P126" s="22"/>
+      <c r="Q126" s="22"/>
+      <c r="R126" s="22"/>
+      <c r="S126" s="6"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="22"/>
+      <c r="P127" s="22"/>
+      <c r="Q127" s="22"/>
+      <c r="R127" s="22"/>
+      <c r="S127" s="6"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="22"/>
+      <c r="O128" s="22"/>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="22"/>
+      <c r="S128" s="6"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="22"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="22"/>
+      <c r="P129" s="22"/>
+      <c r="Q129" s="22"/>
+      <c r="R129" s="22"/>
+      <c r="S129" s="6"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="22"/>
+      <c r="J130" s="22"/>
+      <c r="K130" s="22"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="22"/>
+      <c r="N130" s="22"/>
+      <c r="O130" s="22"/>
+      <c r="P130" s="22"/>
+      <c r="Q130" s="22"/>
+      <c r="R130" s="22"/>
+      <c r="S130" s="6"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
+      <c r="J131" s="22"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="22"/>
+      <c r="N131" s="22"/>
+      <c r="O131" s="22"/>
+      <c r="P131" s="22"/>
+      <c r="Q131" s="22"/>
+      <c r="R131" s="22"/>
+      <c r="S131" s="6"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="22"/>
+      <c r="J132" s="22"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="22"/>
+      <c r="N132" s="22"/>
+      <c r="O132" s="22"/>
+      <c r="P132" s="22"/>
+      <c r="Q132" s="22"/>
+      <c r="R132" s="22"/>
+      <c r="S132" s="6"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
+      <c r="J133" s="22"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="22"/>
+      <c r="N133" s="22"/>
+      <c r="O133" s="22"/>
+      <c r="P133" s="22"/>
+      <c r="Q133" s="22"/>
+      <c r="R133" s="22"/>
+      <c r="S133" s="6"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="22"/>
+      <c r="N134" s="22"/>
+      <c r="O134" s="22"/>
+      <c r="P134" s="22"/>
+      <c r="Q134" s="22"/>
+      <c r="R134" s="22"/>
+      <c r="S134" s="6"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="22"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="22"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="22"/>
+      <c r="Q135" s="22"/>
+      <c r="R135" s="22"/>
+      <c r="S135" s="6"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="22"/>
+      <c r="J136" s="22"/>
+      <c r="K136" s="22"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="22"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="22"/>
+      <c r="P136" s="22"/>
+      <c r="Q136" s="22"/>
+      <c r="R136" s="22"/>
+      <c r="S136" s="6"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="22"/>
+      <c r="J137" s="22"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="22"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="22"/>
+      <c r="P137" s="22"/>
+      <c r="Q137" s="22"/>
+      <c r="R137" s="22"/>
+      <c r="S137" s="6"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="9"/>
+      <c r="S138" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/6.Task-dependencies.xlsx
+++ b/me/6.Task-dependencies.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF1119-A4F2-469F-A9BF-17C2A32C25DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6C2D52-FB8E-47AF-8FA3-B6A297EFE14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depends On" sheetId="1" r:id="rId1"/>
     <sheet name="Filtering Tasks with dependsOn" sheetId="3" r:id="rId2"/>
     <sheet name="dependsOn in conditional logic" sheetId="4" r:id="rId3"/>
+    <sheet name="Task Dependency Graph" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="108">
   <si>
     <t>構成</t>
   </si>
@@ -87,9 +88,6 @@
   </si>
   <si>
     <t>6.Task-dependencies</t>
-  </si>
-  <si>
-    <t>DependsOnScriptsExamples</t>
   </si>
   <si>
     <t>new</t>
@@ -318,12 +316,136 @@
   <si>
     <t>Second run doStartProcess và doStep2 không được chạy do không thỏa mãn điều kiện Math.random() &lt; 0.5</t>
   </si>
+  <si>
+    <t>1.DependsOnScriptsExamples</t>
+  </si>
+  <si>
+    <t>Gradle has a configuration phase and an execution phase. After the configuration phase, Gradle knows about all the tasks that should be executed</t>
+  </si>
+  <si>
+    <t>https://docs.gradle.org/current/javadoc/org/gradle/api/execution/TaskExecutionGraph.html</t>
+  </si>
+  <si>
+    <t>TaskExecutionGraph</t>
+  </si>
+  <si>
+    <t>whenReady</t>
+  </si>
+  <si>
+    <t>2.DependsOnGraphScriptsExamples</t>
+  </si>
+  <si>
+    <t>Gradle\6.Task-dependencies\2.DependsOnGraphScriptsExamples\build.gradle</t>
+  </si>
+  <si>
+    <t>//logger.info "&gt;&gt;&gt; build.gradle --&gt; This is executed during the configuration phase  - timestamp @ ${gradle.timestamp()}"</t>
+  </si>
+  <si>
+    <t>task doSomethingInTheMiddle (dependsOn: ['doStartProcess', tasks.findAll { task -&gt; task.name.startsWith('doStep2') } ]) {</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; $project.gradle.taskGraph"</t>
+  </si>
+  <si>
+    <t>project.gradle.taskGraph.whenReady {</t>
+  </si>
+  <si>
+    <t>    logger.info "&gt;&gt;&gt; $project.gradle.taskGraph.allTasks"</t>
+  </si>
+  <si>
+    <t>closure to be called when this graph has been populated. This graph is passed to the closure as a parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can see a collection of all the tasks </t>
+  </si>
+  <si>
+    <t>task doFinished {</t>
+  </si>
+  <si>
+    <t>    doFinished.dependsOn doSomethingInTheMiddle, doStep2</t>
+  </si>
+  <si>
+    <t>50 percent doSomethingInTheMiddle and doStep2 will be added as dependency and thereforce</t>
+  </si>
+  <si>
+    <t>exist in the task gragh</t>
+  </si>
+  <si>
+    <t>project.gradle.taskGraph.whenReady {taskGraph -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (taskGraph.hasTask(doStep2)) {       </t>
+  </si>
+  <si>
+    <t>        project.version = '1.0'        </t>
+  </si>
+  <si>
+    <t>    } else {        </t>
+  </si>
+  <si>
+    <t>        project.version = '1.0-SNAPSHOT'</t>
+  </si>
+  <si>
+    <t>Note that even though we define the doStep2 task and doSomethingInTheMiddle task, if they are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not included on the task graph, either through the defaultTasks or the dependsOn method, they </t>
+  </si>
+  <si>
+    <t>will not be pooled into the execution phase of the build lifecycle and not be executed</t>
+  </si>
+  <si>
+    <t>We can direct access taskGraph although before we access it for the gradle domain object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        logger.info "$name - Done - OK! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&gt;&gt; with version=$version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>First run</t>
+  </si>
+  <si>
+    <t>Second run</t>
+  </si>
+  <si>
+    <t>project.gradle.taskGraph.beforeTask{task -&gt;</t>
+  </si>
+  <si>
+    <t>    logger.info "+++ Before task $task.name"</t>
+  </si>
+  <si>
+    <t>project.gradle.taskGraph.afterTask{task -&gt;</t>
+  </si>
+  <si>
+    <t>    logger.info "+++ Finished task $task.name"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +464,12 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -533,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -556,9 +684,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1663,6 +1792,920 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>64045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BD90A9-18C9-58EE-A385-E096D4F66F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="495300"/>
+          <a:ext cx="8001000" cy="4712245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>388269</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7043C0-B3F0-9063-E435-AB5259B4E91E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="5419725"/>
+          <a:ext cx="8132094" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6F5FD4-8561-A4AD-07CC-7A84F01563AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="700368" y="9763126"/>
+          <a:ext cx="11211485" cy="5696202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>19909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E765A95B-6256-3C9C-9B27-A7004FC442CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728383" y="16080441"/>
+          <a:ext cx="11127441" cy="5465968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725C9789-6462-AD78-E8AC-53B07DC10BC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1389529" y="32564294"/>
+          <a:ext cx="10074089" cy="5031441"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEBFCF4-D8E0-63CC-7905-5AE203D99846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2476500" y="33684882"/>
+          <a:ext cx="10018059" cy="3899647"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6796CF24-EF88-804A-A1F9-427EF6908B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1411941" y="30648088"/>
+          <a:ext cx="8751794" cy="7138147"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DB3893-6C84-DFBE-C27A-6A53276954FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1535206" y="38256882"/>
+          <a:ext cx="8157882" cy="123265"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD751179-4073-C7D0-74D7-9686CBBE21EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1602441" y="35220088"/>
+          <a:ext cx="2420471" cy="3339353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>470648</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>86860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DD29C3-9EB8-A13E-D611-8C07DF0DF74B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795619" y="21873884"/>
+          <a:ext cx="11172264" cy="1644476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76112E9F-3144-D3B0-ECB6-D0289292F631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3025588" y="22826382"/>
+          <a:ext cx="1759324" cy="14948647"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>29641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75A693A-162C-1C65-5ECE-72BD9612BDE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728382" y="41416941"/>
+          <a:ext cx="10936942" cy="7761700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A77714-1316-9327-D7EE-D2E78711B767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3597088" y="36183794"/>
+          <a:ext cx="459441" cy="7642412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0BBDF7-3439-3AF9-7845-8D821354AF6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2723029" y="35589882"/>
+          <a:ext cx="2577353" cy="7776883"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC5E1D1-8E0B-087E-8C6F-0556E822550E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4078941" y="34872706"/>
+          <a:ext cx="851647" cy="13514294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8448F8E6-2487-474B-4FE9-58A6FCF046F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1893794" y="39567971"/>
+          <a:ext cx="1266265" cy="5087470"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0271575D-0236-A69E-465B-F0F6A4F8A452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1815353" y="40341176"/>
+          <a:ext cx="1221441" cy="4908177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>288568</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776805B3-7B0D-F42F-74E7-5FB55E03F14A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705970" y="49765324"/>
+          <a:ext cx="11079833" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1928,15 +2971,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T227"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2068,16 +3111,16 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="D22" s="7" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E22" s="7"/>
       <c r="I22" s="6"/>
@@ -2135,12 +3178,12 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2160,7 +3203,7 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M35" s="6"/>
     </row>
@@ -2170,31 +3213,31 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M39" s="6"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M41" s="6"/>
     </row>
@@ -2204,31 +3247,31 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M47" s="6"/>
     </row>
@@ -2238,14 +3281,14 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M49" s="6"/>
       <c r="N49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
@@ -2255,7 +3298,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M50" s="6"/>
       <c r="O50" s="5"/>
@@ -2263,7 +3306,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M51" s="6"/>
       <c r="O51" s="5"/>
@@ -2271,7 +3314,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M52" s="6"/>
       <c r="O52" s="5"/>
@@ -2279,7 +3322,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M53" s="6"/>
       <c r="O53" s="5"/>
@@ -2293,14 +3336,14 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M55" s="6"/>
       <c r="N55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -2310,28 +3353,28 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M56" s="6"/>
       <c r="O56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -2348,7 +3391,7 @@
     <row r="61" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -2373,7 +3416,7 @@
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2937,7 +3980,7 @@
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -2961,7 +4004,7 @@
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S153" s="6"/>
       <c r="T153" s="15"/>
@@ -3452,20 +4495,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B87D40-1361-4E07-8BF4-790DBF080BA8}">
   <dimension ref="A2:T197"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O136" sqref="O136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3488,7 +4531,7 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T6" s="6"/>
     </row>
@@ -3734,7 +4777,7 @@
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T67" s="6"/>
     </row>
@@ -3864,7 +4907,7 @@
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T99" s="6"/>
     </row>
@@ -4097,7 +5140,7 @@
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" s="5"/>
       <c r="D140" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E140" s="7"/>
       <c r="I140" s="6"/>
@@ -4109,10 +5152,10 @@
       </c>
       <c r="I141" s="6"/>
       <c r="J141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
@@ -4161,12 +5204,12 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -4186,7 +5229,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B153" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M153" s="6"/>
     </row>
@@ -4196,34 +5239,34 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M155" s="6"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
       <c r="C156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M156" s="6"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
       <c r="D157" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M157" s="6"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M158" s="6"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M159" s="6"/>
     </row>
@@ -4233,34 +5276,34 @@
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M161" s="6"/>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
       <c r="C162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M162" s="6"/>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
       <c r="D163" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M163" s="6"/>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
       <c r="C164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M164" s="6"/>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B165" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M165" s="6"/>
     </row>
@@ -4270,40 +5313,40 @@
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B167" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M167" s="6"/>
       <c r="N167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B168" s="5"/>
       <c r="C168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M168" s="6"/>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
       <c r="D169" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M169" s="6"/>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M170" s="6"/>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B171" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M171" s="6"/>
     </row>
@@ -4313,34 +5356,34 @@
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M173" s="6"/>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
       <c r="C174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M174" s="6"/>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
       <c r="D175" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M175" s="6"/>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M176" s="6"/>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M177" s="6"/>
     </row>
@@ -4350,7 +5393,7 @@
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B179" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
@@ -4364,15 +5407,15 @@
       <c r="L179" s="9"/>
       <c r="M179" s="10"/>
       <c r="N179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O179" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4385,15 +5428,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F558FB7-0978-4425-9CAA-1DF84A7F873F}">
   <dimension ref="A2:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4414,403 +5457,88 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+        <v>69</v>
+      </c>
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -4964,7 +5692,7 @@
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E45" s="7"/>
       <c r="I45" s="6"/>
@@ -4976,10 +5704,10 @@
       </c>
       <c r="I46" s="6"/>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -5028,12 +5756,12 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5049,514 +5777,194 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
+        <v>24</v>
+      </c>
       <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
       <c r="M59" s="6"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
+        <v>25</v>
+      </c>
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
+        <v>26</v>
+      </c>
       <c r="M61" s="6"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
+        <v>27</v>
+      </c>
       <c r="M62" s="6"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
+        <v>28</v>
+      </c>
       <c r="M63" s="6"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
+        <v>29</v>
+      </c>
       <c r="M64" s="6"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
       <c r="M65" s="6"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
+        <v>30</v>
+      </c>
       <c r="M66" s="6"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
+        <v>26</v>
+      </c>
       <c r="M67" s="6"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
+        <v>31</v>
+      </c>
       <c r="M68" s="6"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
+        <v>28</v>
+      </c>
       <c r="M69" s="6"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
+        <v>29</v>
+      </c>
       <c r="M70" s="6"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
       <c r="M71" s="6"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
+        <v>62</v>
+      </c>
       <c r="M72" s="6"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
+        <v>26</v>
+      </c>
       <c r="M73" s="6"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
+        <v>33</v>
+      </c>
       <c r="M74" s="6"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
+        <v>28</v>
+      </c>
       <c r="M75" s="6"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
+        <v>29</v>
+      </c>
       <c r="M76" s="6"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
       <c r="M77" s="6"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
+        <v>34</v>
+      </c>
       <c r="M78" s="6"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
+        <v>26</v>
+      </c>
       <c r="M79" s="6"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
+        <v>35</v>
+      </c>
       <c r="M80" s="6"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
+        <v>36</v>
+      </c>
       <c r="M81" s="6"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
+        <v>29</v>
+      </c>
       <c r="M82" s="6"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
       <c r="M83" s="6"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
+        <v>63</v>
+      </c>
       <c r="M84" s="6"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
       <c r="M85" s="6"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="6"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B87" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
       <c r="M87" s="6"/>
       <c r="N87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
+      <c r="B88" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="M88" s="6"/>
       <c r="O88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -5572,12 +5980,12 @@
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
-        <v>42</v>
+      <c r="A111" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5600,552 +6008,112 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
-      <c r="B112" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="22"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="22"/>
-      <c r="O112" s="22"/>
-      <c r="P112" s="22"/>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="22"/>
+      <c r="B112" t="s">
+        <v>72</v>
+      </c>
       <c r="S112" s="6"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="22"/>
-      <c r="N113" s="22"/>
-      <c r="O113" s="22"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="22"/>
       <c r="S113" s="6"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
-      <c r="K114" s="22"/>
-      <c r="L114" s="22"/>
-      <c r="M114" s="22"/>
-      <c r="N114" s="22"/>
-      <c r="O114" s="22"/>
-      <c r="P114" s="22"/>
-      <c r="Q114" s="22"/>
-      <c r="R114" s="22"/>
       <c r="S114" s="6"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="22"/>
-      <c r="L115" s="22"/>
-      <c r="M115" s="22"/>
-      <c r="N115" s="22"/>
-      <c r="O115" s="22"/>
-      <c r="P115" s="22"/>
-      <c r="Q115" s="22"/>
-      <c r="R115" s="22"/>
       <c r="S115" s="6"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="22"/>
-      <c r="L116" s="22"/>
-      <c r="M116" s="22"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="22"/>
-      <c r="P116" s="22"/>
-      <c r="Q116" s="22"/>
-      <c r="R116" s="22"/>
       <c r="S116" s="6"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="22"/>
-      <c r="L117" s="22"/>
-      <c r="M117" s="22"/>
-      <c r="N117" s="22"/>
-      <c r="O117" s="22"/>
-      <c r="P117" s="22"/>
-      <c r="Q117" s="22"/>
-      <c r="R117" s="22"/>
       <c r="S117" s="6"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="22"/>
-      <c r="L118" s="22"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="22"/>
-      <c r="O118" s="22"/>
-      <c r="P118" s="22"/>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="22"/>
       <c r="S118" s="6"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22"/>
-      <c r="I119" s="22"/>
-      <c r="J119" s="22"/>
-      <c r="K119" s="22"/>
-      <c r="L119" s="22"/>
-      <c r="M119" s="22"/>
-      <c r="N119" s="22"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="22"/>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="22"/>
       <c r="S119" s="6"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="22"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
       <c r="S120" s="6"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="22"/>
-      <c r="K121" s="22"/>
-      <c r="L121" s="22"/>
-      <c r="M121" s="22"/>
-      <c r="N121" s="22"/>
-      <c r="O121" s="22"/>
-      <c r="P121" s="22"/>
-      <c r="Q121" s="22"/>
-      <c r="R121" s="22"/>
       <c r="S121" s="6"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="22"/>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="22"/>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="22"/>
       <c r="S122" s="6"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="22"/>
-      <c r="L123" s="22"/>
-      <c r="M123" s="22"/>
-      <c r="N123" s="22"/>
-      <c r="O123" s="22"/>
-      <c r="P123" s="22"/>
-      <c r="Q123" s="22"/>
-      <c r="R123" s="22"/>
       <c r="S123" s="6"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="22"/>
-      <c r="K124" s="22"/>
-      <c r="L124" s="22"/>
-      <c r="M124" s="22"/>
-      <c r="N124" s="22"/>
-      <c r="O124" s="22"/>
-      <c r="P124" s="22"/>
-      <c r="Q124" s="22"/>
-      <c r="R124" s="22"/>
       <c r="S124" s="6"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
-      <c r="K125" s="22"/>
-      <c r="L125" s="22"/>
-      <c r="M125" s="22"/>
-      <c r="N125" s="22"/>
-      <c r="O125" s="22"/>
-      <c r="P125" s="22"/>
-      <c r="Q125" s="22"/>
-      <c r="R125" s="22"/>
       <c r="S125" s="6"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="22"/>
-      <c r="L126" s="22"/>
-      <c r="M126" s="22"/>
-      <c r="N126" s="22"/>
-      <c r="O126" s="22"/>
-      <c r="P126" s="22"/>
-      <c r="Q126" s="22"/>
-      <c r="R126" s="22"/>
       <c r="S126" s="6"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
-      <c r="B127" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="22"/>
-      <c r="K127" s="22"/>
-      <c r="L127" s="22"/>
-      <c r="M127" s="22"/>
-      <c r="N127" s="22"/>
-      <c r="O127" s="22"/>
-      <c r="P127" s="22"/>
-      <c r="Q127" s="22"/>
-      <c r="R127" s="22"/>
+      <c r="B127" t="s">
+        <v>73</v>
+      </c>
       <c r="S127" s="6"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="22"/>
-      <c r="L128" s="22"/>
-      <c r="M128" s="22"/>
-      <c r="N128" s="22"/>
-      <c r="O128" s="22"/>
-      <c r="P128" s="22"/>
-      <c r="Q128" s="22"/>
-      <c r="R128" s="22"/>
       <c r="S128" s="6"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="22"/>
-      <c r="J129" s="22"/>
-      <c r="K129" s="22"/>
-      <c r="L129" s="22"/>
-      <c r="M129" s="22"/>
-      <c r="N129" s="22"/>
-      <c r="O129" s="22"/>
-      <c r="P129" s="22"/>
-      <c r="Q129" s="22"/>
-      <c r="R129" s="22"/>
       <c r="S129" s="6"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="22"/>
-      <c r="I130" s="22"/>
-      <c r="J130" s="22"/>
-      <c r="K130" s="22"/>
-      <c r="L130" s="22"/>
-      <c r="M130" s="22"/>
-      <c r="N130" s="22"/>
-      <c r="O130" s="22"/>
-      <c r="P130" s="22"/>
-      <c r="Q130" s="22"/>
-      <c r="R130" s="22"/>
       <c r="S130" s="6"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="22"/>
-      <c r="J131" s="22"/>
-      <c r="K131" s="22"/>
-      <c r="L131" s="22"/>
-      <c r="M131" s="22"/>
-      <c r="N131" s="22"/>
-      <c r="O131" s="22"/>
-      <c r="P131" s="22"/>
-      <c r="Q131" s="22"/>
-      <c r="R131" s="22"/>
       <c r="S131" s="6"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="22"/>
-      <c r="I132" s="22"/>
-      <c r="J132" s="22"/>
-      <c r="K132" s="22"/>
-      <c r="L132" s="22"/>
-      <c r="M132" s="22"/>
-      <c r="N132" s="22"/>
-      <c r="O132" s="22"/>
-      <c r="P132" s="22"/>
-      <c r="Q132" s="22"/>
-      <c r="R132" s="22"/>
       <c r="S132" s="6"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="22"/>
-      <c r="I133" s="22"/>
-      <c r="J133" s="22"/>
-      <c r="K133" s="22"/>
-      <c r="L133" s="22"/>
-      <c r="M133" s="22"/>
-      <c r="N133" s="22"/>
-      <c r="O133" s="22"/>
-      <c r="P133" s="22"/>
-      <c r="Q133" s="22"/>
-      <c r="R133" s="22"/>
       <c r="S133" s="6"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
-      <c r="J134" s="22"/>
-      <c r="K134" s="22"/>
-      <c r="L134" s="22"/>
-      <c r="M134" s="22"/>
-      <c r="N134" s="22"/>
-      <c r="O134" s="22"/>
-      <c r="P134" s="22"/>
-      <c r="Q134" s="22"/>
-      <c r="R134" s="22"/>
       <c r="S134" s="6"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
-      <c r="J135" s="22"/>
-      <c r="K135" s="22"/>
-      <c r="L135" s="22"/>
-      <c r="M135" s="22"/>
-      <c r="N135" s="22"/>
-      <c r="O135" s="22"/>
-      <c r="P135" s="22"/>
-      <c r="Q135" s="22"/>
-      <c r="R135" s="22"/>
       <c r="S135" s="6"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="22"/>
-      <c r="H136" s="22"/>
-      <c r="I136" s="22"/>
-      <c r="J136" s="22"/>
-      <c r="K136" s="22"/>
-      <c r="L136" s="22"/>
-      <c r="M136" s="22"/>
-      <c r="N136" s="22"/>
-      <c r="O136" s="22"/>
-      <c r="P136" s="22"/>
-      <c r="Q136" s="22"/>
-      <c r="R136" s="22"/>
       <c r="S136" s="6"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="22"/>
-      <c r="H137" s="22"/>
-      <c r="I137" s="22"/>
-      <c r="J137" s="22"/>
-      <c r="K137" s="22"/>
-      <c r="L137" s="22"/>
-      <c r="M137" s="22"/>
-      <c r="N137" s="22"/>
-      <c r="O137" s="22"/>
-      <c r="P137" s="22"/>
-      <c r="Q137" s="22"/>
-      <c r="R137" s="22"/>
       <c r="S137" s="6"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -6173,4 +6141,4292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E871047-9C93-4961-B2EB-3869A9B56998}">
+  <dimension ref="A3:U281"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X215" sqref="X215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="6"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="6"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="6"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="6"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="6"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="6"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="6"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="6"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="6"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="10"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="4"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="24"/>
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="6"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="6"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="6"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
+      <c r="S92" s="24"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24"/>
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="24"/>
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24"/>
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="6"/>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="24"/>
+      <c r="Q97" s="24"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="24"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="24"/>
+      <c r="Q98" s="24"/>
+      <c r="R98" s="24"/>
+      <c r="S98" s="24"/>
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="24"/>
+      <c r="Q99" s="24"/>
+      <c r="R99" s="24"/>
+      <c r="S99" s="24"/>
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="24"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="24"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24"/>
+      <c r="T101" s="6"/>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="24"/>
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="24"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="24"/>
+      <c r="S103" s="24"/>
+      <c r="T103" s="6"/>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="24"/>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="24"/>
+      <c r="S104" s="24"/>
+      <c r="T104" s="6"/>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="24"/>
+      <c r="O105" s="24"/>
+      <c r="P105" s="24"/>
+      <c r="Q105" s="24"/>
+      <c r="R105" s="24"/>
+      <c r="S105" s="24"/>
+      <c r="T105" s="6"/>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="24"/>
+      <c r="O106" s="24"/>
+      <c r="P106" s="24"/>
+      <c r="Q106" s="24"/>
+      <c r="R106" s="24"/>
+      <c r="S106" s="24"/>
+      <c r="T106" s="6"/>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="24"/>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24"/>
+      <c r="T107" s="6"/>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="24"/>
+      <c r="O108" s="24"/>
+      <c r="P108" s="24"/>
+      <c r="Q108" s="24"/>
+      <c r="R108" s="24"/>
+      <c r="S108" s="24"/>
+      <c r="T108" s="6"/>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
+      <c r="R109" s="24"/>
+      <c r="S109" s="24"/>
+      <c r="T109" s="6"/>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="24"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="24"/>
+      <c r="Q110" s="24"/>
+      <c r="R110" s="24"/>
+      <c r="S110" s="24"/>
+      <c r="T110" s="6"/>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="24"/>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="6"/>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="24"/>
+      <c r="O112" s="24"/>
+      <c r="P112" s="24"/>
+      <c r="Q112" s="24"/>
+      <c r="R112" s="24"/>
+      <c r="S112" s="24"/>
+      <c r="T112" s="6"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="24"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="24"/>
+      <c r="Q113" s="24"/>
+      <c r="R113" s="24"/>
+      <c r="S113" s="24"/>
+      <c r="T113" s="6"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
+      <c r="N114" s="24"/>
+      <c r="O114" s="24"/>
+      <c r="P114" s="24"/>
+      <c r="Q114" s="24"/>
+      <c r="R114" s="24"/>
+      <c r="S114" s="24"/>
+      <c r="T114" s="6"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="24"/>
+      <c r="O115" s="24"/>
+      <c r="P115" s="24"/>
+      <c r="Q115" s="24"/>
+      <c r="R115" s="24"/>
+      <c r="S115" s="24"/>
+      <c r="T115" s="6"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="24"/>
+      <c r="M116" s="24"/>
+      <c r="N116" s="24"/>
+      <c r="O116" s="24"/>
+      <c r="P116" s="24"/>
+      <c r="Q116" s="24"/>
+      <c r="R116" s="24"/>
+      <c r="S116" s="24"/>
+      <c r="T116" s="6"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="24"/>
+      <c r="O117" s="24"/>
+      <c r="P117" s="24"/>
+      <c r="Q117" s="24"/>
+      <c r="R117" s="24"/>
+      <c r="S117" s="24"/>
+      <c r="T117" s="6"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="24"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="24"/>
+      <c r="Q118" s="24"/>
+      <c r="R118" s="24"/>
+      <c r="S118" s="24"/>
+      <c r="T118" s="6"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
+      <c r="N119" s="24"/>
+      <c r="O119" s="24"/>
+      <c r="P119" s="24"/>
+      <c r="Q119" s="24"/>
+      <c r="R119" s="24"/>
+      <c r="S119" s="24"/>
+      <c r="T119" s="6"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="24"/>
+      <c r="O120" s="24"/>
+      <c r="P120" s="24"/>
+      <c r="Q120" s="24"/>
+      <c r="R120" s="24"/>
+      <c r="S120" s="24"/>
+      <c r="T120" s="6"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="24"/>
+      <c r="O121" s="24"/>
+      <c r="P121" s="24"/>
+      <c r="Q121" s="24"/>
+      <c r="R121" s="24"/>
+      <c r="S121" s="24"/>
+      <c r="T121" s="6"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="24"/>
+      <c r="P122" s="24"/>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
+      <c r="S122" s="24"/>
+      <c r="T122" s="6"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24"/>
+      <c r="O123" s="24"/>
+      <c r="P123" s="24"/>
+      <c r="Q123" s="24"/>
+      <c r="R123" s="24"/>
+      <c r="S123" s="24"/>
+      <c r="T123" s="6"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="24"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="24"/>
+      <c r="Q124" s="24"/>
+      <c r="R124" s="24"/>
+      <c r="S124" s="24"/>
+      <c r="T124" s="6"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B125" s="8"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="10"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="E132" t="s">
+        <v>4</v>
+      </c>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="E141" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="D146" t="s">
+        <v>74</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="E147" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="D148" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E148" s="7"/>
+      <c r="I148" s="6"/>
+      <c r="J148" t="s">
+        <v>21</v>
+      </c>
+      <c r="K148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="E149" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="D152" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="6"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="8"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="10"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="4"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="24"/>
+      <c r="M160" s="24"/>
+      <c r="N160" s="6"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B161" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
+      <c r="N161" s="6"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="24"/>
+      <c r="I162" s="24"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="24"/>
+      <c r="M162" s="24"/>
+      <c r="N162" s="6"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" s="24"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
+      <c r="M163" s="24"/>
+      <c r="N163" s="6"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+      <c r="H164" s="24"/>
+      <c r="I164" s="24"/>
+      <c r="J164" s="24"/>
+      <c r="K164" s="24"/>
+      <c r="L164" s="24"/>
+      <c r="M164" s="24"/>
+      <c r="N164" s="6"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
+      <c r="M165" s="24"/>
+      <c r="N165" s="6"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C166" s="24"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+      <c r="H166" s="24"/>
+      <c r="I166" s="24"/>
+      <c r="J166" s="24"/>
+      <c r="K166" s="24"/>
+      <c r="L166" s="24"/>
+      <c r="M166" s="24"/>
+      <c r="N166" s="6"/>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C167" s="24"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="24"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="24"/>
+      <c r="M167" s="24"/>
+      <c r="N167" s="6"/>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
+      <c r="H168" s="24"/>
+      <c r="I168" s="24"/>
+      <c r="J168" s="24"/>
+      <c r="K168" s="24"/>
+      <c r="L168" s="24"/>
+      <c r="M168" s="24"/>
+      <c r="N168" s="6"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+      <c r="H169" s="24"/>
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="24"/>
+      <c r="M169" s="24"/>
+      <c r="N169" s="6"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="24"/>
+      <c r="H170" s="24"/>
+      <c r="I170" s="24"/>
+      <c r="J170" s="24"/>
+      <c r="K170" s="24"/>
+      <c r="L170" s="24"/>
+      <c r="M170" s="24"/>
+      <c r="N170" s="6"/>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="24"/>
+      <c r="M171" s="24"/>
+      <c r="N171" s="6"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="24"/>
+      <c r="M172" s="24"/>
+      <c r="N172" s="6"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="24"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="24"/>
+      <c r="H173" s="24"/>
+      <c r="I173" s="24"/>
+      <c r="J173" s="24"/>
+      <c r="K173" s="24"/>
+      <c r="L173" s="24"/>
+      <c r="M173" s="24"/>
+      <c r="N173" s="6"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="24"/>
+      <c r="J174" s="24"/>
+      <c r="K174" s="24"/>
+      <c r="L174" s="24"/>
+      <c r="M174" s="24"/>
+      <c r="N174" s="6"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C175" s="24"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="24"/>
+      <c r="H175" s="24"/>
+      <c r="I175" s="24"/>
+      <c r="J175" s="24"/>
+      <c r="K175" s="24"/>
+      <c r="L175" s="24"/>
+      <c r="M175" s="24"/>
+      <c r="N175" s="6"/>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="24"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="24"/>
+      <c r="J176" s="24"/>
+      <c r="K176" s="24"/>
+      <c r="L176" s="24"/>
+      <c r="M176" s="24"/>
+      <c r="N176" s="6"/>
+    </row>
+    <row r="177" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="24"/>
+      <c r="L177" s="24"/>
+      <c r="M177" s="24"/>
+      <c r="N177" s="6"/>
+    </row>
+    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="24"/>
+      <c r="I178" s="24"/>
+      <c r="J178" s="24"/>
+      <c r="K178" s="24"/>
+      <c r="L178" s="24"/>
+      <c r="M178" s="24"/>
+      <c r="N178" s="6"/>
+    </row>
+    <row r="179" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="24"/>
+      <c r="H179" s="24"/>
+      <c r="I179" s="24"/>
+      <c r="J179" s="24"/>
+      <c r="K179" s="24"/>
+      <c r="L179" s="24"/>
+      <c r="M179" s="24"/>
+      <c r="N179" s="6"/>
+    </row>
+    <row r="180" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="24"/>
+      <c r="H180" s="24"/>
+      <c r="I180" s="24"/>
+      <c r="J180" s="24"/>
+      <c r="K180" s="24"/>
+      <c r="L180" s="24"/>
+      <c r="M180" s="24"/>
+      <c r="N180" s="6"/>
+    </row>
+    <row r="181" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="24"/>
+      <c r="F181" s="24"/>
+      <c r="G181" s="24"/>
+      <c r="H181" s="24"/>
+      <c r="I181" s="24"/>
+      <c r="J181" s="24"/>
+      <c r="K181" s="24"/>
+      <c r="L181" s="24"/>
+      <c r="M181" s="24"/>
+      <c r="N181" s="6"/>
+    </row>
+    <row r="182" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" s="24"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="24"/>
+      <c r="F182" s="24"/>
+      <c r="G182" s="24"/>
+      <c r="H182" s="24"/>
+      <c r="I182" s="24"/>
+      <c r="J182" s="24"/>
+      <c r="K182" s="24"/>
+      <c r="L182" s="24"/>
+      <c r="M182" s="24"/>
+      <c r="N182" s="6"/>
+    </row>
+    <row r="183" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="24"/>
+      <c r="I183" s="24"/>
+      <c r="J183" s="24"/>
+      <c r="K183" s="24"/>
+      <c r="L183" s="24"/>
+      <c r="M183" s="24"/>
+      <c r="N183" s="6"/>
+    </row>
+    <row r="184" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184" s="24"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="24"/>
+      <c r="F184" s="24"/>
+      <c r="G184" s="24"/>
+      <c r="H184" s="24"/>
+      <c r="I184" s="24"/>
+      <c r="J184" s="24"/>
+      <c r="K184" s="24"/>
+      <c r="L184" s="24"/>
+      <c r="M184" s="24"/>
+      <c r="N184" s="6"/>
+    </row>
+    <row r="185" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" s="24"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="24"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="24"/>
+      <c r="I185" s="24"/>
+      <c r="J185" s="24"/>
+      <c r="K185" s="24"/>
+      <c r="L185" s="24"/>
+      <c r="M185" s="24"/>
+      <c r="N185" s="6"/>
+    </row>
+    <row r="186" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="24"/>
+      <c r="H186" s="24"/>
+      <c r="I186" s="24"/>
+      <c r="J186" s="24"/>
+      <c r="K186" s="24"/>
+      <c r="L186" s="24"/>
+      <c r="M186" s="24"/>
+      <c r="N186" s="6"/>
+    </row>
+    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B187" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C187" s="24"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="24"/>
+      <c r="I187" s="24"/>
+      <c r="J187" s="24"/>
+      <c r="K187" s="24"/>
+      <c r="L187" s="24"/>
+      <c r="M187" s="24"/>
+      <c r="N187" s="6"/>
+    </row>
+    <row r="188" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C188" s="24"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="24"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="24"/>
+      <c r="H188" s="24"/>
+      <c r="I188" s="24"/>
+      <c r="J188" s="24"/>
+      <c r="K188" s="24"/>
+      <c r="L188" s="24"/>
+      <c r="M188" s="24"/>
+      <c r="N188" s="6"/>
+    </row>
+    <row r="189" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B189" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C189" s="24"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="24"/>
+      <c r="F189" s="24"/>
+      <c r="G189" s="24"/>
+      <c r="H189" s="24"/>
+      <c r="I189" s="24"/>
+      <c r="J189" s="24"/>
+      <c r="K189" s="24"/>
+      <c r="L189" s="24"/>
+      <c r="M189" s="24"/>
+      <c r="N189" s="6"/>
+      <c r="O189" t="s">
+        <v>21</v>
+      </c>
+      <c r="P189" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="190" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B190" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C190" s="24"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="24"/>
+      <c r="G190" s="24"/>
+      <c r="H190" s="24"/>
+      <c r="I190" s="24"/>
+      <c r="J190" s="24"/>
+      <c r="K190" s="24"/>
+      <c r="L190" s="24"/>
+      <c r="M190" s="24"/>
+      <c r="N190" s="6"/>
+      <c r="P190" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="191" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B191" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191" s="24"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="24"/>
+      <c r="I191" s="24"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="24"/>
+      <c r="L191" s="24"/>
+      <c r="M191" s="24"/>
+      <c r="N191" s="6"/>
+    </row>
+    <row r="192" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="24"/>
+      <c r="H192" s="24"/>
+      <c r="I192" s="24"/>
+      <c r="J192" s="24"/>
+      <c r="K192" s="24"/>
+      <c r="L192" s="24"/>
+      <c r="M192" s="24"/>
+      <c r="N192" s="6"/>
+    </row>
+    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B193" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C193" s="24"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="24"/>
+      <c r="G193" s="24"/>
+      <c r="H193" s="24"/>
+      <c r="I193" s="24"/>
+      <c r="J193" s="24"/>
+      <c r="K193" s="24"/>
+      <c r="L193" s="24"/>
+      <c r="M193" s="24"/>
+      <c r="N193" s="6"/>
+    </row>
+    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B194" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C194" s="24"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="24"/>
+      <c r="H194" s="24"/>
+      <c r="I194" s="24"/>
+      <c r="J194" s="24"/>
+      <c r="K194" s="24"/>
+      <c r="L194" s="24"/>
+      <c r="M194" s="24"/>
+      <c r="N194" s="6"/>
+      <c r="O194" t="s">
+        <v>21</v>
+      </c>
+      <c r="P194" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B195" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C195" s="24"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24"/>
+      <c r="F195" s="24"/>
+      <c r="G195" s="24"/>
+      <c r="H195" s="24"/>
+      <c r="I195" s="24"/>
+      <c r="J195" s="24"/>
+      <c r="K195" s="24"/>
+      <c r="L195" s="24"/>
+      <c r="M195" s="24"/>
+      <c r="N195" s="6"/>
+      <c r="P195" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B196" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196" s="24"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="24"/>
+      <c r="G196" s="24"/>
+      <c r="H196" s="24"/>
+      <c r="I196" s="24"/>
+      <c r="J196" s="24"/>
+      <c r="K196" s="24"/>
+      <c r="L196" s="24"/>
+      <c r="M196" s="24"/>
+      <c r="N196" s="6"/>
+      <c r="P196" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B197" s="5"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="24"/>
+      <c r="G197" s="24"/>
+      <c r="H197" s="24"/>
+      <c r="I197" s="24"/>
+      <c r="J197" s="24"/>
+      <c r="K197" s="24"/>
+      <c r="L197" s="24"/>
+      <c r="M197" s="24"/>
+      <c r="N197" s="6"/>
+      <c r="P197" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B198" s="5"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="24"/>
+      <c r="F198" s="24"/>
+      <c r="G198" s="24"/>
+      <c r="H198" s="24"/>
+      <c r="I198" s="24"/>
+      <c r="J198" s="24"/>
+      <c r="K198" s="24"/>
+      <c r="L198" s="24"/>
+      <c r="M198" s="24"/>
+      <c r="N198" s="6"/>
+      <c r="P198" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B199" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C199" s="24"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="24"/>
+      <c r="G199" s="24"/>
+      <c r="H199" s="24"/>
+      <c r="I199" s="24"/>
+      <c r="J199" s="24"/>
+      <c r="K199" s="24"/>
+      <c r="L199" s="24"/>
+      <c r="M199" s="24"/>
+      <c r="N199" s="6"/>
+      <c r="P199" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B200" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C200" s="24"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="24"/>
+      <c r="G200" s="24"/>
+      <c r="H200" s="24"/>
+      <c r="I200" s="24"/>
+      <c r="J200" s="24"/>
+      <c r="K200" s="24"/>
+      <c r="L200" s="24"/>
+      <c r="M200" s="24"/>
+      <c r="N200" s="6"/>
+    </row>
+    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B201" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C201" s="24"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="24"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="24"/>
+      <c r="I201" s="24"/>
+      <c r="J201" s="24"/>
+      <c r="K201" s="24"/>
+      <c r="L201" s="24"/>
+      <c r="M201" s="24"/>
+      <c r="N201" s="6"/>
+    </row>
+    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B202" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24"/>
+      <c r="F202" s="24"/>
+      <c r="G202" s="24"/>
+      <c r="H202" s="24"/>
+      <c r="I202" s="24"/>
+      <c r="J202" s="24"/>
+      <c r="K202" s="24"/>
+      <c r="L202" s="24"/>
+      <c r="M202" s="24"/>
+      <c r="N202" s="6"/>
+    </row>
+    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B203" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="24"/>
+      <c r="I203" s="24"/>
+      <c r="J203" s="24"/>
+      <c r="K203" s="24"/>
+      <c r="L203" s="24"/>
+      <c r="M203" s="24"/>
+      <c r="N203" s="6"/>
+    </row>
+    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B204" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204" s="24"/>
+      <c r="D204" s="24"/>
+      <c r="E204" s="24"/>
+      <c r="F204" s="24"/>
+      <c r="G204" s="24"/>
+      <c r="H204" s="24"/>
+      <c r="I204" s="24"/>
+      <c r="J204" s="24"/>
+      <c r="K204" s="24"/>
+      <c r="L204" s="24"/>
+      <c r="M204" s="24"/>
+      <c r="N204" s="6"/>
+    </row>
+    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B205" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" s="24"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24"/>
+      <c r="F205" s="24"/>
+      <c r="G205" s="24"/>
+      <c r="H205" s="24"/>
+      <c r="I205" s="24"/>
+      <c r="J205" s="24"/>
+      <c r="K205" s="24"/>
+      <c r="L205" s="24"/>
+      <c r="M205" s="24"/>
+      <c r="N205" s="6"/>
+    </row>
+    <row r="206" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B206" s="5"/>
+      <c r="C206" s="24"/>
+      <c r="D206" s="24"/>
+      <c r="E206" s="24"/>
+      <c r="F206" s="24"/>
+      <c r="G206" s="24"/>
+      <c r="H206" s="24"/>
+      <c r="I206" s="24"/>
+      <c r="J206" s="24"/>
+      <c r="K206" s="24"/>
+      <c r="L206" s="24"/>
+      <c r="M206" s="24"/>
+      <c r="N206" s="6"/>
+    </row>
+    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B207" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C207" s="24"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="24"/>
+      <c r="F207" s="24"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="24"/>
+      <c r="I207" s="24"/>
+      <c r="J207" s="24"/>
+      <c r="K207" s="24"/>
+      <c r="L207" s="24"/>
+      <c r="M207" s="24"/>
+      <c r="N207" s="6"/>
+    </row>
+    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B208" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C208" s="24"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="24"/>
+      <c r="F208" s="24"/>
+      <c r="G208" s="24"/>
+      <c r="H208" s="24"/>
+      <c r="I208" s="24"/>
+      <c r="J208" s="24"/>
+      <c r="K208" s="24"/>
+      <c r="L208" s="24"/>
+      <c r="M208" s="24"/>
+      <c r="N208" s="6"/>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B209" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209" s="24"/>
+      <c r="D209" s="24"/>
+      <c r="E209" s="24"/>
+      <c r="F209" s="24"/>
+      <c r="G209" s="24"/>
+      <c r="H209" s="24"/>
+      <c r="I209" s="24"/>
+      <c r="J209" s="24"/>
+      <c r="K209" s="24"/>
+      <c r="L209" s="24"/>
+      <c r="M209" s="24"/>
+      <c r="N209" s="6"/>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B210" s="22"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="24"/>
+      <c r="E210" s="24"/>
+      <c r="F210" s="24"/>
+      <c r="G210" s="24"/>
+      <c r="H210" s="24"/>
+      <c r="I210" s="24"/>
+      <c r="J210" s="24"/>
+      <c r="K210" s="24"/>
+      <c r="L210" s="24"/>
+      <c r="M210" s="24"/>
+      <c r="N210" s="6"/>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B211" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C211" s="24"/>
+      <c r="D211" s="24"/>
+      <c r="E211" s="24"/>
+      <c r="F211" s="24"/>
+      <c r="G211" s="24"/>
+      <c r="H211" s="24"/>
+      <c r="I211" s="24"/>
+      <c r="J211" s="24"/>
+      <c r="K211" s="24"/>
+      <c r="L211" s="24"/>
+      <c r="M211" s="24"/>
+      <c r="N211" s="6"/>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B212" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C212" s="24"/>
+      <c r="D212" s="24"/>
+      <c r="E212" s="24"/>
+      <c r="F212" s="24"/>
+      <c r="G212" s="24"/>
+      <c r="H212" s="24"/>
+      <c r="I212" s="24"/>
+      <c r="J212" s="24"/>
+      <c r="K212" s="24"/>
+      <c r="L212" s="24"/>
+      <c r="M212" s="24"/>
+      <c r="N212" s="6"/>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B213" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213" s="9"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="9"/>
+      <c r="M213" s="9"/>
+      <c r="N213" s="10"/>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A216" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
+      <c r="Q216" s="3"/>
+      <c r="R216" s="3"/>
+      <c r="S216" s="3"/>
+      <c r="T216" s="3"/>
+      <c r="U216" s="4"/>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="B217" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
+      <c r="Q217" s="3"/>
+      <c r="R217" s="3"/>
+      <c r="S217" s="3"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="6"/>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="24"/>
+      <c r="F218" s="24"/>
+      <c r="G218" s="24"/>
+      <c r="H218" s="24"/>
+      <c r="I218" s="24"/>
+      <c r="J218" s="24"/>
+      <c r="K218" s="24"/>
+      <c r="L218" s="24"/>
+      <c r="M218" s="24"/>
+      <c r="N218" s="24"/>
+      <c r="O218" s="24"/>
+      <c r="P218" s="24"/>
+      <c r="Q218" s="24"/>
+      <c r="R218" s="24"/>
+      <c r="S218" s="24"/>
+      <c r="T218" s="6"/>
+      <c r="U218" s="6"/>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="24"/>
+      <c r="F219" s="24"/>
+      <c r="G219" s="24"/>
+      <c r="H219" s="24"/>
+      <c r="I219" s="24"/>
+      <c r="J219" s="24"/>
+      <c r="K219" s="24"/>
+      <c r="L219" s="24"/>
+      <c r="M219" s="24"/>
+      <c r="N219" s="24"/>
+      <c r="O219" s="24"/>
+      <c r="P219" s="24"/>
+      <c r="Q219" s="24"/>
+      <c r="R219" s="24"/>
+      <c r="S219" s="24"/>
+      <c r="T219" s="6"/>
+      <c r="U219" s="6"/>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="24"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="24"/>
+      <c r="F220" s="24"/>
+      <c r="G220" s="24"/>
+      <c r="H220" s="24"/>
+      <c r="I220" s="24"/>
+      <c r="J220" s="24"/>
+      <c r="K220" s="24"/>
+      <c r="L220" s="24"/>
+      <c r="M220" s="24"/>
+      <c r="N220" s="24"/>
+      <c r="O220" s="24"/>
+      <c r="P220" s="24"/>
+      <c r="Q220" s="24"/>
+      <c r="R220" s="24"/>
+      <c r="S220" s="24"/>
+      <c r="T220" s="6"/>
+      <c r="U220" s="6"/>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="24"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="24"/>
+      <c r="F221" s="24"/>
+      <c r="G221" s="24"/>
+      <c r="H221" s="24"/>
+      <c r="I221" s="24"/>
+      <c r="J221" s="24"/>
+      <c r="K221" s="24"/>
+      <c r="L221" s="24"/>
+      <c r="M221" s="24"/>
+      <c r="N221" s="24"/>
+      <c r="O221" s="24"/>
+      <c r="P221" s="24"/>
+      <c r="Q221" s="24"/>
+      <c r="R221" s="24"/>
+      <c r="S221" s="24"/>
+      <c r="T221" s="6"/>
+      <c r="U221" s="6"/>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="24"/>
+      <c r="D222" s="24"/>
+      <c r="E222" s="24"/>
+      <c r="F222" s="24"/>
+      <c r="G222" s="24"/>
+      <c r="H222" s="24"/>
+      <c r="I222" s="24"/>
+      <c r="J222" s="24"/>
+      <c r="K222" s="24"/>
+      <c r="L222" s="24"/>
+      <c r="M222" s="24"/>
+      <c r="N222" s="24"/>
+      <c r="O222" s="24"/>
+      <c r="P222" s="24"/>
+      <c r="Q222" s="24"/>
+      <c r="R222" s="24"/>
+      <c r="S222" s="24"/>
+      <c r="T222" s="6"/>
+      <c r="U222" s="6"/>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="24"/>
+      <c r="E223" s="24"/>
+      <c r="F223" s="24"/>
+      <c r="G223" s="24"/>
+      <c r="H223" s="24"/>
+      <c r="I223" s="24"/>
+      <c r="J223" s="24"/>
+      <c r="K223" s="24"/>
+      <c r="L223" s="24"/>
+      <c r="M223" s="24"/>
+      <c r="N223" s="24"/>
+      <c r="O223" s="24"/>
+      <c r="P223" s="24"/>
+      <c r="Q223" s="24"/>
+      <c r="R223" s="24"/>
+      <c r="S223" s="24"/>
+      <c r="T223" s="6"/>
+      <c r="U223" s="6"/>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="24"/>
+      <c r="D224" s="24"/>
+      <c r="E224" s="24"/>
+      <c r="F224" s="24"/>
+      <c r="G224" s="24"/>
+      <c r="H224" s="24"/>
+      <c r="I224" s="24"/>
+      <c r="J224" s="24"/>
+      <c r="K224" s="24"/>
+      <c r="L224" s="24"/>
+      <c r="M224" s="24"/>
+      <c r="N224" s="24"/>
+      <c r="O224" s="24"/>
+      <c r="P224" s="24"/>
+      <c r="Q224" s="24"/>
+      <c r="R224" s="24"/>
+      <c r="S224" s="24"/>
+      <c r="T224" s="6"/>
+      <c r="U224" s="6"/>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="24"/>
+      <c r="F225" s="24"/>
+      <c r="G225" s="24"/>
+      <c r="H225" s="24"/>
+      <c r="I225" s="24"/>
+      <c r="J225" s="24"/>
+      <c r="K225" s="24"/>
+      <c r="L225" s="24"/>
+      <c r="M225" s="24"/>
+      <c r="N225" s="24"/>
+      <c r="O225" s="24"/>
+      <c r="P225" s="24"/>
+      <c r="Q225" s="24"/>
+      <c r="R225" s="24"/>
+      <c r="S225" s="24"/>
+      <c r="T225" s="6"/>
+      <c r="U225" s="6"/>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="24"/>
+      <c r="E226" s="24"/>
+      <c r="F226" s="24"/>
+      <c r="G226" s="24"/>
+      <c r="H226" s="24"/>
+      <c r="I226" s="24"/>
+      <c r="J226" s="24"/>
+      <c r="K226" s="24"/>
+      <c r="L226" s="24"/>
+      <c r="M226" s="24"/>
+      <c r="N226" s="24"/>
+      <c r="O226" s="24"/>
+      <c r="P226" s="24"/>
+      <c r="Q226" s="24"/>
+      <c r="R226" s="24"/>
+      <c r="S226" s="24"/>
+      <c r="T226" s="6"/>
+      <c r="U226" s="6"/>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" s="5"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="24"/>
+      <c r="D227" s="24"/>
+      <c r="E227" s="24"/>
+      <c r="F227" s="24"/>
+      <c r="G227" s="24"/>
+      <c r="H227" s="24"/>
+      <c r="I227" s="24"/>
+      <c r="J227" s="24"/>
+      <c r="K227" s="24"/>
+      <c r="L227" s="24"/>
+      <c r="M227" s="24"/>
+      <c r="N227" s="24"/>
+      <c r="O227" s="24"/>
+      <c r="P227" s="24"/>
+      <c r="Q227" s="24"/>
+      <c r="R227" s="24"/>
+      <c r="S227" s="24"/>
+      <c r="T227" s="6"/>
+      <c r="U227" s="6"/>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="24"/>
+      <c r="D228" s="24"/>
+      <c r="E228" s="24"/>
+      <c r="F228" s="24"/>
+      <c r="G228" s="24"/>
+      <c r="H228" s="24"/>
+      <c r="I228" s="24"/>
+      <c r="J228" s="24"/>
+      <c r="K228" s="24"/>
+      <c r="L228" s="24"/>
+      <c r="M228" s="24"/>
+      <c r="N228" s="24"/>
+      <c r="O228" s="24"/>
+      <c r="P228" s="24"/>
+      <c r="Q228" s="24"/>
+      <c r="R228" s="24"/>
+      <c r="S228" s="24"/>
+      <c r="T228" s="6"/>
+      <c r="U228" s="6"/>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="24"/>
+      <c r="E229" s="24"/>
+      <c r="F229" s="24"/>
+      <c r="G229" s="24"/>
+      <c r="H229" s="24"/>
+      <c r="I229" s="24"/>
+      <c r="J229" s="24"/>
+      <c r="K229" s="24"/>
+      <c r="L229" s="24"/>
+      <c r="M229" s="24"/>
+      <c r="N229" s="24"/>
+      <c r="O229" s="24"/>
+      <c r="P229" s="24"/>
+      <c r="Q229" s="24"/>
+      <c r="R229" s="24"/>
+      <c r="S229" s="24"/>
+      <c r="T229" s="6"/>
+      <c r="U229" s="6"/>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="24"/>
+      <c r="D230" s="24"/>
+      <c r="E230" s="24"/>
+      <c r="F230" s="24"/>
+      <c r="G230" s="24"/>
+      <c r="H230" s="24"/>
+      <c r="I230" s="24"/>
+      <c r="J230" s="24"/>
+      <c r="K230" s="24"/>
+      <c r="L230" s="24"/>
+      <c r="M230" s="24"/>
+      <c r="N230" s="24"/>
+      <c r="O230" s="24"/>
+      <c r="P230" s="24"/>
+      <c r="Q230" s="24"/>
+      <c r="R230" s="24"/>
+      <c r="S230" s="24"/>
+      <c r="T230" s="6"/>
+      <c r="U230" s="6"/>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="24"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="24"/>
+      <c r="F231" s="24"/>
+      <c r="G231" s="24"/>
+      <c r="H231" s="24"/>
+      <c r="I231" s="24"/>
+      <c r="J231" s="24"/>
+      <c r="K231" s="24"/>
+      <c r="L231" s="24"/>
+      <c r="M231" s="24"/>
+      <c r="N231" s="24"/>
+      <c r="O231" s="24"/>
+      <c r="P231" s="24"/>
+      <c r="Q231" s="24"/>
+      <c r="R231" s="24"/>
+      <c r="S231" s="24"/>
+      <c r="T231" s="6"/>
+      <c r="U231" s="6"/>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="24"/>
+      <c r="D232" s="24"/>
+      <c r="E232" s="24"/>
+      <c r="F232" s="24"/>
+      <c r="G232" s="24"/>
+      <c r="H232" s="24"/>
+      <c r="I232" s="24"/>
+      <c r="J232" s="24"/>
+      <c r="K232" s="24"/>
+      <c r="L232" s="24"/>
+      <c r="M232" s="24"/>
+      <c r="N232" s="24"/>
+      <c r="O232" s="24"/>
+      <c r="P232" s="24"/>
+      <c r="Q232" s="24"/>
+      <c r="R232" s="24"/>
+      <c r="S232" s="24"/>
+      <c r="T232" s="6"/>
+      <c r="U232" s="6"/>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="24"/>
+      <c r="D233" s="24"/>
+      <c r="E233" s="24"/>
+      <c r="F233" s="24"/>
+      <c r="G233" s="24"/>
+      <c r="H233" s="24"/>
+      <c r="I233" s="24"/>
+      <c r="J233" s="24"/>
+      <c r="K233" s="24"/>
+      <c r="L233" s="24"/>
+      <c r="M233" s="24"/>
+      <c r="N233" s="24"/>
+      <c r="O233" s="24"/>
+      <c r="P233" s="24"/>
+      <c r="Q233" s="24"/>
+      <c r="R233" s="24"/>
+      <c r="S233" s="24"/>
+      <c r="T233" s="6"/>
+      <c r="U233" s="6"/>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="24"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="24"/>
+      <c r="F234" s="24"/>
+      <c r="G234" s="24"/>
+      <c r="H234" s="24"/>
+      <c r="I234" s="24"/>
+      <c r="J234" s="24"/>
+      <c r="K234" s="24"/>
+      <c r="L234" s="24"/>
+      <c r="M234" s="24"/>
+      <c r="N234" s="24"/>
+      <c r="O234" s="24"/>
+      <c r="P234" s="24"/>
+      <c r="Q234" s="24"/>
+      <c r="R234" s="24"/>
+      <c r="S234" s="24"/>
+      <c r="T234" s="6"/>
+      <c r="U234" s="6"/>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A235" s="5"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="24"/>
+      <c r="D235" s="24"/>
+      <c r="E235" s="24"/>
+      <c r="F235" s="24"/>
+      <c r="G235" s="24"/>
+      <c r="H235" s="24"/>
+      <c r="I235" s="24"/>
+      <c r="J235" s="24"/>
+      <c r="K235" s="24"/>
+      <c r="L235" s="24"/>
+      <c r="M235" s="24"/>
+      <c r="N235" s="24"/>
+      <c r="O235" s="24"/>
+      <c r="P235" s="24"/>
+      <c r="Q235" s="24"/>
+      <c r="R235" s="24"/>
+      <c r="S235" s="24"/>
+      <c r="T235" s="6"/>
+      <c r="U235" s="6"/>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A236" s="5"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
+      <c r="F236" s="24"/>
+      <c r="G236" s="24"/>
+      <c r="H236" s="24"/>
+      <c r="I236" s="24"/>
+      <c r="J236" s="24"/>
+      <c r="K236" s="24"/>
+      <c r="L236" s="24"/>
+      <c r="M236" s="24"/>
+      <c r="N236" s="24"/>
+      <c r="O236" s="24"/>
+      <c r="P236" s="24"/>
+      <c r="Q236" s="24"/>
+      <c r="R236" s="24"/>
+      <c r="S236" s="24"/>
+      <c r="T236" s="6"/>
+      <c r="U236" s="6"/>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A237" s="5"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="24"/>
+      <c r="D237" s="24"/>
+      <c r="E237" s="24"/>
+      <c r="F237" s="24"/>
+      <c r="G237" s="24"/>
+      <c r="H237" s="24"/>
+      <c r="I237" s="24"/>
+      <c r="J237" s="24"/>
+      <c r="K237" s="24"/>
+      <c r="L237" s="24"/>
+      <c r="M237" s="24"/>
+      <c r="N237" s="24"/>
+      <c r="O237" s="24"/>
+      <c r="P237" s="24"/>
+      <c r="Q237" s="24"/>
+      <c r="R237" s="24"/>
+      <c r="S237" s="24"/>
+      <c r="T237" s="6"/>
+      <c r="U237" s="6"/>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A238" s="5"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="24"/>
+      <c r="D238" s="24"/>
+      <c r="E238" s="24"/>
+      <c r="F238" s="24"/>
+      <c r="G238" s="24"/>
+      <c r="H238" s="24"/>
+      <c r="I238" s="24"/>
+      <c r="J238" s="24"/>
+      <c r="K238" s="24"/>
+      <c r="L238" s="24"/>
+      <c r="M238" s="24"/>
+      <c r="N238" s="24"/>
+      <c r="O238" s="24"/>
+      <c r="P238" s="24"/>
+      <c r="Q238" s="24"/>
+      <c r="R238" s="24"/>
+      <c r="S238" s="24"/>
+      <c r="T238" s="6"/>
+      <c r="U238" s="6"/>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A239" s="5"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="24"/>
+      <c r="D239" s="24"/>
+      <c r="E239" s="24"/>
+      <c r="F239" s="24"/>
+      <c r="G239" s="24"/>
+      <c r="H239" s="24"/>
+      <c r="I239" s="24"/>
+      <c r="J239" s="24"/>
+      <c r="K239" s="24"/>
+      <c r="L239" s="24"/>
+      <c r="M239" s="24"/>
+      <c r="N239" s="24"/>
+      <c r="O239" s="24"/>
+      <c r="P239" s="24"/>
+      <c r="Q239" s="24"/>
+      <c r="R239" s="24"/>
+      <c r="S239" s="24"/>
+      <c r="T239" s="6"/>
+      <c r="U239" s="6"/>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A240" s="5"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="24"/>
+      <c r="D240" s="24"/>
+      <c r="E240" s="24"/>
+      <c r="F240" s="24"/>
+      <c r="G240" s="24"/>
+      <c r="H240" s="24"/>
+      <c r="I240" s="24"/>
+      <c r="J240" s="24"/>
+      <c r="K240" s="24"/>
+      <c r="L240" s="24"/>
+      <c r="M240" s="24"/>
+      <c r="N240" s="24"/>
+      <c r="O240" s="24"/>
+      <c r="P240" s="24"/>
+      <c r="Q240" s="24"/>
+      <c r="R240" s="24"/>
+      <c r="S240" s="24"/>
+      <c r="T240" s="6"/>
+      <c r="U240" s="6"/>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="24"/>
+      <c r="D241" s="24"/>
+      <c r="E241" s="24"/>
+      <c r="F241" s="24"/>
+      <c r="G241" s="24"/>
+      <c r="H241" s="24"/>
+      <c r="I241" s="24"/>
+      <c r="J241" s="24"/>
+      <c r="K241" s="24"/>
+      <c r="L241" s="24"/>
+      <c r="M241" s="24"/>
+      <c r="N241" s="24"/>
+      <c r="O241" s="24"/>
+      <c r="P241" s="24"/>
+      <c r="Q241" s="24"/>
+      <c r="R241" s="24"/>
+      <c r="S241" s="24"/>
+      <c r="T241" s="6"/>
+      <c r="U241" s="6"/>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="24"/>
+      <c r="D242" s="24"/>
+      <c r="E242" s="24"/>
+      <c r="F242" s="24"/>
+      <c r="G242" s="24"/>
+      <c r="H242" s="24"/>
+      <c r="I242" s="24"/>
+      <c r="J242" s="24"/>
+      <c r="K242" s="24"/>
+      <c r="L242" s="24"/>
+      <c r="M242" s="24"/>
+      <c r="N242" s="24"/>
+      <c r="O242" s="24"/>
+      <c r="P242" s="24"/>
+      <c r="Q242" s="24"/>
+      <c r="R242" s="24"/>
+      <c r="S242" s="24"/>
+      <c r="T242" s="6"/>
+      <c r="U242" s="6"/>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A243" s="5"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="24"/>
+      <c r="D243" s="24"/>
+      <c r="E243" s="24"/>
+      <c r="F243" s="24"/>
+      <c r="G243" s="24"/>
+      <c r="H243" s="24"/>
+      <c r="I243" s="24"/>
+      <c r="J243" s="24"/>
+      <c r="K243" s="24"/>
+      <c r="L243" s="24"/>
+      <c r="M243" s="24"/>
+      <c r="N243" s="24"/>
+      <c r="O243" s="24"/>
+      <c r="P243" s="24"/>
+      <c r="Q243" s="24"/>
+      <c r="R243" s="24"/>
+      <c r="S243" s="24"/>
+      <c r="T243" s="6"/>
+      <c r="U243" s="6"/>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A244" s="5"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="24"/>
+      <c r="D244" s="24"/>
+      <c r="E244" s="24"/>
+      <c r="F244" s="24"/>
+      <c r="G244" s="24"/>
+      <c r="H244" s="24"/>
+      <c r="I244" s="24"/>
+      <c r="J244" s="24"/>
+      <c r="K244" s="24"/>
+      <c r="L244" s="24"/>
+      <c r="M244" s="24"/>
+      <c r="N244" s="24"/>
+      <c r="O244" s="24"/>
+      <c r="P244" s="24"/>
+      <c r="Q244" s="24"/>
+      <c r="R244" s="24"/>
+      <c r="S244" s="24"/>
+      <c r="T244" s="6"/>
+      <c r="U244" s="6"/>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A245" s="5"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="24"/>
+      <c r="D245" s="24"/>
+      <c r="E245" s="24"/>
+      <c r="F245" s="24"/>
+      <c r="G245" s="24"/>
+      <c r="H245" s="24"/>
+      <c r="I245" s="24"/>
+      <c r="J245" s="24"/>
+      <c r="K245" s="24"/>
+      <c r="L245" s="24"/>
+      <c r="M245" s="24"/>
+      <c r="N245" s="24"/>
+      <c r="O245" s="24"/>
+      <c r="P245" s="24"/>
+      <c r="Q245" s="24"/>
+      <c r="R245" s="24"/>
+      <c r="S245" s="24"/>
+      <c r="T245" s="6"/>
+      <c r="U245" s="6"/>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A246" s="5"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="24"/>
+      <c r="D246" s="24"/>
+      <c r="E246" s="24"/>
+      <c r="F246" s="24"/>
+      <c r="G246" s="24"/>
+      <c r="H246" s="24"/>
+      <c r="I246" s="24"/>
+      <c r="J246" s="24"/>
+      <c r="K246" s="24"/>
+      <c r="L246" s="24"/>
+      <c r="M246" s="24"/>
+      <c r="N246" s="24"/>
+      <c r="O246" s="24"/>
+      <c r="P246" s="24"/>
+      <c r="Q246" s="24"/>
+      <c r="R246" s="24"/>
+      <c r="S246" s="24"/>
+      <c r="T246" s="6"/>
+      <c r="U246" s="6"/>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="24"/>
+      <c r="D247" s="24"/>
+      <c r="E247" s="24"/>
+      <c r="F247" s="24"/>
+      <c r="G247" s="24"/>
+      <c r="H247" s="24"/>
+      <c r="I247" s="24"/>
+      <c r="J247" s="24"/>
+      <c r="K247" s="24"/>
+      <c r="L247" s="24"/>
+      <c r="M247" s="24"/>
+      <c r="N247" s="24"/>
+      <c r="O247" s="24"/>
+      <c r="P247" s="24"/>
+      <c r="Q247" s="24"/>
+      <c r="R247" s="24"/>
+      <c r="S247" s="24"/>
+      <c r="T247" s="6"/>
+      <c r="U247" s="6"/>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="24"/>
+      <c r="D248" s="24"/>
+      <c r="E248" s="24"/>
+      <c r="F248" s="24"/>
+      <c r="G248" s="24"/>
+      <c r="H248" s="24"/>
+      <c r="I248" s="24"/>
+      <c r="J248" s="24"/>
+      <c r="K248" s="24"/>
+      <c r="L248" s="24"/>
+      <c r="M248" s="24"/>
+      <c r="N248" s="24"/>
+      <c r="O248" s="24"/>
+      <c r="P248" s="24"/>
+      <c r="Q248" s="24"/>
+      <c r="R248" s="24"/>
+      <c r="S248" s="24"/>
+      <c r="T248" s="6"/>
+      <c r="U248" s="6"/>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="24"/>
+      <c r="D249" s="24"/>
+      <c r="E249" s="24"/>
+      <c r="F249" s="24"/>
+      <c r="G249" s="24"/>
+      <c r="H249" s="24"/>
+      <c r="I249" s="24"/>
+      <c r="J249" s="24"/>
+      <c r="K249" s="24"/>
+      <c r="L249" s="24"/>
+      <c r="M249" s="24"/>
+      <c r="N249" s="24"/>
+      <c r="O249" s="24"/>
+      <c r="P249" s="24"/>
+      <c r="Q249" s="24"/>
+      <c r="R249" s="24"/>
+      <c r="S249" s="24"/>
+      <c r="T249" s="6"/>
+      <c r="U249" s="6"/>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="24"/>
+      <c r="D250" s="24"/>
+      <c r="E250" s="24"/>
+      <c r="F250" s="24"/>
+      <c r="G250" s="24"/>
+      <c r="H250" s="24"/>
+      <c r="I250" s="24"/>
+      <c r="J250" s="24"/>
+      <c r="K250" s="24"/>
+      <c r="L250" s="24"/>
+      <c r="M250" s="24"/>
+      <c r="N250" s="24"/>
+      <c r="O250" s="24"/>
+      <c r="P250" s="24"/>
+      <c r="Q250" s="24"/>
+      <c r="R250" s="24"/>
+      <c r="S250" s="24"/>
+      <c r="T250" s="6"/>
+      <c r="U250" s="6"/>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A251" s="5"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="24"/>
+      <c r="D251" s="24"/>
+      <c r="E251" s="24"/>
+      <c r="F251" s="24"/>
+      <c r="G251" s="24"/>
+      <c r="H251" s="24"/>
+      <c r="I251" s="24"/>
+      <c r="J251" s="24"/>
+      <c r="K251" s="24"/>
+      <c r="L251" s="24"/>
+      <c r="M251" s="24"/>
+      <c r="N251" s="24"/>
+      <c r="O251" s="24"/>
+      <c r="P251" s="24"/>
+      <c r="Q251" s="24"/>
+      <c r="R251" s="24"/>
+      <c r="S251" s="24"/>
+      <c r="T251" s="6"/>
+      <c r="U251" s="6"/>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A252" s="5"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="24"/>
+      <c r="D252" s="24"/>
+      <c r="E252" s="24"/>
+      <c r="F252" s="24"/>
+      <c r="G252" s="24"/>
+      <c r="H252" s="24"/>
+      <c r="I252" s="24"/>
+      <c r="J252" s="24"/>
+      <c r="K252" s="24"/>
+      <c r="L252" s="24"/>
+      <c r="M252" s="24"/>
+      <c r="N252" s="24"/>
+      <c r="O252" s="24"/>
+      <c r="P252" s="24"/>
+      <c r="Q252" s="24"/>
+      <c r="R252" s="24"/>
+      <c r="S252" s="24"/>
+      <c r="T252" s="6"/>
+      <c r="U252" s="6"/>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A253" s="5"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="24"/>
+      <c r="D253" s="24"/>
+      <c r="E253" s="24"/>
+      <c r="F253" s="24"/>
+      <c r="G253" s="24"/>
+      <c r="H253" s="24"/>
+      <c r="I253" s="24"/>
+      <c r="J253" s="24"/>
+      <c r="K253" s="24"/>
+      <c r="L253" s="24"/>
+      <c r="M253" s="24"/>
+      <c r="N253" s="24"/>
+      <c r="O253" s="24"/>
+      <c r="P253" s="24"/>
+      <c r="Q253" s="24"/>
+      <c r="R253" s="24"/>
+      <c r="S253" s="24"/>
+      <c r="T253" s="6"/>
+      <c r="U253" s="6"/>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="24"/>
+      <c r="D254" s="24"/>
+      <c r="E254" s="24"/>
+      <c r="F254" s="24"/>
+      <c r="G254" s="24"/>
+      <c r="H254" s="24"/>
+      <c r="I254" s="24"/>
+      <c r="J254" s="24"/>
+      <c r="K254" s="24"/>
+      <c r="L254" s="24"/>
+      <c r="M254" s="24"/>
+      <c r="N254" s="24"/>
+      <c r="O254" s="24"/>
+      <c r="P254" s="24"/>
+      <c r="Q254" s="24"/>
+      <c r="R254" s="24"/>
+      <c r="S254" s="24"/>
+      <c r="T254" s="6"/>
+      <c r="U254" s="6"/>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="24"/>
+      <c r="E255" s="24"/>
+      <c r="F255" s="24"/>
+      <c r="G255" s="24"/>
+      <c r="H255" s="24"/>
+      <c r="I255" s="24"/>
+      <c r="J255" s="24"/>
+      <c r="K255" s="24"/>
+      <c r="L255" s="24"/>
+      <c r="M255" s="24"/>
+      <c r="N255" s="24"/>
+      <c r="O255" s="24"/>
+      <c r="P255" s="24"/>
+      <c r="Q255" s="24"/>
+      <c r="R255" s="24"/>
+      <c r="S255" s="24"/>
+      <c r="T255" s="6"/>
+      <c r="U255" s="6"/>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="24"/>
+      <c r="D256" s="24"/>
+      <c r="E256" s="24"/>
+      <c r="F256" s="24"/>
+      <c r="G256" s="24"/>
+      <c r="H256" s="24"/>
+      <c r="I256" s="24"/>
+      <c r="J256" s="24"/>
+      <c r="K256" s="24"/>
+      <c r="L256" s="24"/>
+      <c r="M256" s="24"/>
+      <c r="N256" s="24"/>
+      <c r="O256" s="24"/>
+      <c r="P256" s="24"/>
+      <c r="Q256" s="24"/>
+      <c r="R256" s="24"/>
+      <c r="S256" s="24"/>
+      <c r="T256" s="6"/>
+      <c r="U256" s="6"/>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="24"/>
+      <c r="D257" s="24"/>
+      <c r="E257" s="24"/>
+      <c r="F257" s="24"/>
+      <c r="G257" s="24"/>
+      <c r="H257" s="24"/>
+      <c r="I257" s="24"/>
+      <c r="J257" s="24"/>
+      <c r="K257" s="24"/>
+      <c r="L257" s="24"/>
+      <c r="M257" s="24"/>
+      <c r="N257" s="24"/>
+      <c r="O257" s="24"/>
+      <c r="P257" s="24"/>
+      <c r="Q257" s="24"/>
+      <c r="R257" s="24"/>
+      <c r="S257" s="24"/>
+      <c r="T257" s="6"/>
+      <c r="U257" s="6"/>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A258" s="5"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="24"/>
+      <c r="D258" s="24"/>
+      <c r="E258" s="24"/>
+      <c r="F258" s="24"/>
+      <c r="G258" s="24"/>
+      <c r="H258" s="24"/>
+      <c r="I258" s="24"/>
+      <c r="J258" s="24"/>
+      <c r="K258" s="24"/>
+      <c r="L258" s="24"/>
+      <c r="M258" s="24"/>
+      <c r="N258" s="24"/>
+      <c r="O258" s="24"/>
+      <c r="P258" s="24"/>
+      <c r="Q258" s="24"/>
+      <c r="R258" s="24"/>
+      <c r="S258" s="24"/>
+      <c r="T258" s="6"/>
+      <c r="U258" s="6"/>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A259" s="5"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="9"/>
+      <c r="K259" s="9"/>
+      <c r="L259" s="9"/>
+      <c r="M259" s="9"/>
+      <c r="N259" s="9"/>
+      <c r="O259" s="9"/>
+      <c r="P259" s="9"/>
+      <c r="Q259" s="9"/>
+      <c r="R259" s="9"/>
+      <c r="S259" s="9"/>
+      <c r="T259" s="10"/>
+      <c r="U259" s="6"/>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A260" s="5"/>
+      <c r="B260" s="24"/>
+      <c r="C260" s="24"/>
+      <c r="D260" s="24"/>
+      <c r="E260" s="24"/>
+      <c r="F260" s="24"/>
+      <c r="G260" s="24"/>
+      <c r="H260" s="24"/>
+      <c r="I260" s="24"/>
+      <c r="J260" s="24"/>
+      <c r="K260" s="24"/>
+      <c r="L260" s="24"/>
+      <c r="M260" s="24"/>
+      <c r="N260" s="24"/>
+      <c r="O260" s="24"/>
+      <c r="P260" s="24"/>
+      <c r="Q260" s="24"/>
+      <c r="R260" s="24"/>
+      <c r="S260" s="24"/>
+      <c r="T260" s="24"/>
+      <c r="U260" s="6"/>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A261" s="5"/>
+      <c r="B261" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+      <c r="N261" s="3"/>
+      <c r="O261" s="3"/>
+      <c r="P261" s="3"/>
+      <c r="Q261" s="3"/>
+      <c r="R261" s="3"/>
+      <c r="S261" s="3"/>
+      <c r="T261" s="4"/>
+      <c r="U261" s="6"/>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="24"/>
+      <c r="D262" s="24"/>
+      <c r="E262" s="24"/>
+      <c r="F262" s="24"/>
+      <c r="G262" s="24"/>
+      <c r="H262" s="24"/>
+      <c r="I262" s="24"/>
+      <c r="J262" s="24"/>
+      <c r="K262" s="24"/>
+      <c r="L262" s="24"/>
+      <c r="M262" s="24"/>
+      <c r="N262" s="24"/>
+      <c r="O262" s="24"/>
+      <c r="P262" s="24"/>
+      <c r="Q262" s="24"/>
+      <c r="R262" s="24"/>
+      <c r="S262" s="24"/>
+      <c r="T262" s="6"/>
+      <c r="U262" s="6"/>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="24"/>
+      <c r="D263" s="24"/>
+      <c r="E263" s="24"/>
+      <c r="F263" s="24"/>
+      <c r="G263" s="24"/>
+      <c r="H263" s="24"/>
+      <c r="I263" s="24"/>
+      <c r="J263" s="24"/>
+      <c r="K263" s="24"/>
+      <c r="L263" s="24"/>
+      <c r="M263" s="24"/>
+      <c r="N263" s="24"/>
+      <c r="O263" s="24"/>
+      <c r="P263" s="24"/>
+      <c r="Q263" s="24"/>
+      <c r="R263" s="24"/>
+      <c r="S263" s="24"/>
+      <c r="T263" s="6"/>
+      <c r="U263" s="6"/>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="24"/>
+      <c r="D264" s="24"/>
+      <c r="E264" s="24"/>
+      <c r="F264" s="24"/>
+      <c r="G264" s="24"/>
+      <c r="H264" s="24"/>
+      <c r="I264" s="24"/>
+      <c r="J264" s="24"/>
+      <c r="K264" s="24"/>
+      <c r="L264" s="24"/>
+      <c r="M264" s="24"/>
+      <c r="N264" s="24"/>
+      <c r="O264" s="24"/>
+      <c r="P264" s="24"/>
+      <c r="Q264" s="24"/>
+      <c r="R264" s="24"/>
+      <c r="S264" s="24"/>
+      <c r="T264" s="6"/>
+      <c r="U264" s="6"/>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A265" s="5"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="24"/>
+      <c r="D265" s="24"/>
+      <c r="E265" s="24"/>
+      <c r="F265" s="24"/>
+      <c r="G265" s="24"/>
+      <c r="H265" s="24"/>
+      <c r="I265" s="24"/>
+      <c r="J265" s="24"/>
+      <c r="K265" s="24"/>
+      <c r="L265" s="24"/>
+      <c r="M265" s="24"/>
+      <c r="N265" s="24"/>
+      <c r="O265" s="24"/>
+      <c r="P265" s="24"/>
+      <c r="Q265" s="24"/>
+      <c r="R265" s="24"/>
+      <c r="S265" s="24"/>
+      <c r="T265" s="6"/>
+      <c r="U265" s="6"/>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A266" s="5"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="24"/>
+      <c r="D266" s="24"/>
+      <c r="E266" s="24"/>
+      <c r="F266" s="24"/>
+      <c r="G266" s="24"/>
+      <c r="H266" s="24"/>
+      <c r="I266" s="24"/>
+      <c r="J266" s="24"/>
+      <c r="K266" s="24"/>
+      <c r="L266" s="24"/>
+      <c r="M266" s="24"/>
+      <c r="N266" s="24"/>
+      <c r="O266" s="24"/>
+      <c r="P266" s="24"/>
+      <c r="Q266" s="24"/>
+      <c r="R266" s="24"/>
+      <c r="S266" s="24"/>
+      <c r="T266" s="6"/>
+      <c r="U266" s="6"/>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A267" s="5"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="24"/>
+      <c r="D267" s="24"/>
+      <c r="E267" s="24"/>
+      <c r="F267" s="24"/>
+      <c r="G267" s="24"/>
+      <c r="H267" s="24"/>
+      <c r="I267" s="24"/>
+      <c r="J267" s="24"/>
+      <c r="K267" s="24"/>
+      <c r="L267" s="24"/>
+      <c r="M267" s="24"/>
+      <c r="N267" s="24"/>
+      <c r="O267" s="24"/>
+      <c r="P267" s="24"/>
+      <c r="Q267" s="24"/>
+      <c r="R267" s="24"/>
+      <c r="S267" s="24"/>
+      <c r="T267" s="6"/>
+      <c r="U267" s="6"/>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A268" s="5"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="24"/>
+      <c r="D268" s="24"/>
+      <c r="E268" s="24"/>
+      <c r="F268" s="24"/>
+      <c r="G268" s="24"/>
+      <c r="H268" s="24"/>
+      <c r="I268" s="24"/>
+      <c r="J268" s="24"/>
+      <c r="K268" s="24"/>
+      <c r="L268" s="24"/>
+      <c r="M268" s="24"/>
+      <c r="N268" s="24"/>
+      <c r="O268" s="24"/>
+      <c r="P268" s="24"/>
+      <c r="Q268" s="24"/>
+      <c r="R268" s="24"/>
+      <c r="S268" s="24"/>
+      <c r="T268" s="6"/>
+      <c r="U268" s="6"/>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A269" s="5"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="24"/>
+      <c r="D269" s="24"/>
+      <c r="E269" s="24"/>
+      <c r="F269" s="24"/>
+      <c r="G269" s="24"/>
+      <c r="H269" s="24"/>
+      <c r="I269" s="24"/>
+      <c r="J269" s="24"/>
+      <c r="K269" s="24"/>
+      <c r="L269" s="24"/>
+      <c r="M269" s="24"/>
+      <c r="N269" s="24"/>
+      <c r="O269" s="24"/>
+      <c r="P269" s="24"/>
+      <c r="Q269" s="24"/>
+      <c r="R269" s="24"/>
+      <c r="S269" s="24"/>
+      <c r="T269" s="6"/>
+      <c r="U269" s="6"/>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A270" s="5"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="24"/>
+      <c r="D270" s="24"/>
+      <c r="E270" s="24"/>
+      <c r="F270" s="24"/>
+      <c r="G270" s="24"/>
+      <c r="H270" s="24"/>
+      <c r="I270" s="24"/>
+      <c r="J270" s="24"/>
+      <c r="K270" s="24"/>
+      <c r="L270" s="24"/>
+      <c r="M270" s="24"/>
+      <c r="N270" s="24"/>
+      <c r="O270" s="24"/>
+      <c r="P270" s="24"/>
+      <c r="Q270" s="24"/>
+      <c r="R270" s="24"/>
+      <c r="S270" s="24"/>
+      <c r="T270" s="6"/>
+      <c r="U270" s="6"/>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A271" s="5"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="24"/>
+      <c r="D271" s="24"/>
+      <c r="E271" s="24"/>
+      <c r="F271" s="24"/>
+      <c r="G271" s="24"/>
+      <c r="H271" s="24"/>
+      <c r="I271" s="24"/>
+      <c r="J271" s="24"/>
+      <c r="K271" s="24"/>
+      <c r="L271" s="24"/>
+      <c r="M271" s="24"/>
+      <c r="N271" s="24"/>
+      <c r="O271" s="24"/>
+      <c r="P271" s="24"/>
+      <c r="Q271" s="24"/>
+      <c r="R271" s="24"/>
+      <c r="S271" s="24"/>
+      <c r="T271" s="6"/>
+      <c r="U271" s="6"/>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="24"/>
+      <c r="D272" s="24"/>
+      <c r="E272" s="24"/>
+      <c r="F272" s="24"/>
+      <c r="G272" s="24"/>
+      <c r="H272" s="24"/>
+      <c r="I272" s="24"/>
+      <c r="J272" s="24"/>
+      <c r="K272" s="24"/>
+      <c r="L272" s="24"/>
+      <c r="M272" s="24"/>
+      <c r="N272" s="24"/>
+      <c r="O272" s="24"/>
+      <c r="P272" s="24"/>
+      <c r="Q272" s="24"/>
+      <c r="R272" s="24"/>
+      <c r="S272" s="24"/>
+      <c r="T272" s="6"/>
+      <c r="U272" s="6"/>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A273" s="5"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="24"/>
+      <c r="D273" s="24"/>
+      <c r="E273" s="24"/>
+      <c r="F273" s="24"/>
+      <c r="G273" s="24"/>
+      <c r="H273" s="24"/>
+      <c r="I273" s="24"/>
+      <c r="J273" s="24"/>
+      <c r="K273" s="24"/>
+      <c r="L273" s="24"/>
+      <c r="M273" s="24"/>
+      <c r="N273" s="24"/>
+      <c r="O273" s="24"/>
+      <c r="P273" s="24"/>
+      <c r="Q273" s="24"/>
+      <c r="R273" s="24"/>
+      <c r="S273" s="24"/>
+      <c r="T273" s="6"/>
+      <c r="U273" s="6"/>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A274" s="5"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="24"/>
+      <c r="D274" s="24"/>
+      <c r="E274" s="24"/>
+      <c r="F274" s="24"/>
+      <c r="G274" s="24"/>
+      <c r="H274" s="24"/>
+      <c r="I274" s="24"/>
+      <c r="J274" s="24"/>
+      <c r="K274" s="24"/>
+      <c r="L274" s="24"/>
+      <c r="M274" s="24"/>
+      <c r="N274" s="24"/>
+      <c r="O274" s="24"/>
+      <c r="P274" s="24"/>
+      <c r="Q274" s="24"/>
+      <c r="R274" s="24"/>
+      <c r="S274" s="24"/>
+      <c r="T274" s="6"/>
+      <c r="U274" s="6"/>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A275" s="5"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="24"/>
+      <c r="D275" s="24"/>
+      <c r="E275" s="24"/>
+      <c r="F275" s="24"/>
+      <c r="G275" s="24"/>
+      <c r="H275" s="24"/>
+      <c r="I275" s="24"/>
+      <c r="J275" s="24"/>
+      <c r="K275" s="24"/>
+      <c r="L275" s="24"/>
+      <c r="M275" s="24"/>
+      <c r="N275" s="24"/>
+      <c r="O275" s="24"/>
+      <c r="P275" s="24"/>
+      <c r="Q275" s="24"/>
+      <c r="R275" s="24"/>
+      <c r="S275" s="24"/>
+      <c r="T275" s="6"/>
+      <c r="U275" s="6"/>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="24"/>
+      <c r="D276" s="24"/>
+      <c r="E276" s="24"/>
+      <c r="F276" s="24"/>
+      <c r="G276" s="24"/>
+      <c r="H276" s="24"/>
+      <c r="I276" s="24"/>
+      <c r="J276" s="24"/>
+      <c r="K276" s="24"/>
+      <c r="L276" s="24"/>
+      <c r="M276" s="24"/>
+      <c r="N276" s="24"/>
+      <c r="O276" s="24"/>
+      <c r="P276" s="24"/>
+      <c r="Q276" s="24"/>
+      <c r="R276" s="24"/>
+      <c r="S276" s="24"/>
+      <c r="T276" s="6"/>
+      <c r="U276" s="6"/>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="24"/>
+      <c r="D277" s="24"/>
+      <c r="E277" s="24"/>
+      <c r="F277" s="24"/>
+      <c r="G277" s="24"/>
+      <c r="H277" s="24"/>
+      <c r="I277" s="24"/>
+      <c r="J277" s="24"/>
+      <c r="K277" s="24"/>
+      <c r="L277" s="24"/>
+      <c r="M277" s="24"/>
+      <c r="N277" s="24"/>
+      <c r="O277" s="24"/>
+      <c r="P277" s="24"/>
+      <c r="Q277" s="24"/>
+      <c r="R277" s="24"/>
+      <c r="S277" s="24"/>
+      <c r="T277" s="6"/>
+      <c r="U277" s="6"/>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="24"/>
+      <c r="D278" s="24"/>
+      <c r="E278" s="24"/>
+      <c r="F278" s="24"/>
+      <c r="G278" s="24"/>
+      <c r="H278" s="24"/>
+      <c r="I278" s="24"/>
+      <c r="J278" s="24"/>
+      <c r="K278" s="24"/>
+      <c r="L278" s="24"/>
+      <c r="M278" s="24"/>
+      <c r="N278" s="24"/>
+      <c r="O278" s="24"/>
+      <c r="P278" s="24"/>
+      <c r="Q278" s="24"/>
+      <c r="R278" s="24"/>
+      <c r="S278" s="24"/>
+      <c r="T278" s="6"/>
+      <c r="U278" s="6"/>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="24"/>
+      <c r="D279" s="24"/>
+      <c r="E279" s="24"/>
+      <c r="F279" s="24"/>
+      <c r="G279" s="24"/>
+      <c r="H279" s="24"/>
+      <c r="I279" s="24"/>
+      <c r="J279" s="24"/>
+      <c r="K279" s="24"/>
+      <c r="L279" s="24"/>
+      <c r="M279" s="24"/>
+      <c r="N279" s="24"/>
+      <c r="O279" s="24"/>
+      <c r="P279" s="24"/>
+      <c r="Q279" s="24"/>
+      <c r="R279" s="24"/>
+      <c r="S279" s="24"/>
+      <c r="T279" s="6"/>
+      <c r="U279" s="6"/>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A280" s="5"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="9"/>
+      <c r="I280" s="9"/>
+      <c r="J280" s="9"/>
+      <c r="K280" s="9"/>
+      <c r="L280" s="9"/>
+      <c r="M280" s="9"/>
+      <c r="N280" s="9"/>
+      <c r="O280" s="9"/>
+      <c r="P280" s="9"/>
+      <c r="Q280" s="9"/>
+      <c r="R280" s="9"/>
+      <c r="S280" s="9"/>
+      <c r="T280" s="10"/>
+      <c r="U280" s="6"/>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A281" s="8"/>
+      <c r="B281" s="9"/>
+      <c r="C281" s="9"/>
+      <c r="D281" s="9"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="9"/>
+      <c r="H281" s="9"/>
+      <c r="I281" s="9"/>
+      <c r="J281" s="9"/>
+      <c r="K281" s="9"/>
+      <c r="L281" s="9"/>
+      <c r="M281" s="9"/>
+      <c r="N281" s="9"/>
+      <c r="O281" s="9"/>
+      <c r="P281" s="9"/>
+      <c r="Q281" s="9"/>
+      <c r="R281" s="9"/>
+      <c r="S281" s="9"/>
+      <c r="T281" s="9"/>
+      <c r="U281" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>